--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
@@ -16,7 +16,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$414</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="311">
   <si>
     <t>年代</t>
   </si>
@@ -1957,6 +1956,13 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1964,7 +1970,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -2430,10 +2436,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G414"/>
+  <dimension ref="A1:G415"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A405" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G413" sqref="G413"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A407" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11195,6 +11201,27 @@
         <v>292</v>
       </c>
     </row>
+    <row r="415" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A415" s="2">
+        <v>412</v>
+      </c>
+      <c r="B415" s="2"/>
+      <c r="C415" s="17">
+        <v>44092</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="312">
   <si>
     <t>年代</t>
   </si>
@@ -1964,13 +1964,17 @@
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝日町</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -2436,10 +2440,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G415"/>
+  <dimension ref="A1:G417"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A407" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415"/>
+      <selection activeCell="G417" sqref="G417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11222,6 +11226,48 @@
         <v>310</v>
       </c>
     </row>
+    <row r="416" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A416" s="2">
+        <v>413</v>
+      </c>
+      <c r="B416" s="2"/>
+      <c r="C416" s="17">
+        <v>44099</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A417" s="2">
+        <v>414</v>
+      </c>
+      <c r="B417" s="2"/>
+      <c r="C417" s="17">
+        <v>44099</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G417" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$422</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="314">
   <si>
     <t>年代</t>
   </si>
@@ -1968,6 +1969,20 @@
   </si>
   <si>
     <t>朝日町</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2440,10 +2455,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G417"/>
+  <dimension ref="A1:G422"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A407" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G417" sqref="G417"/>
+      <selection activeCell="J414" sqref="J414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11268,6 +11283,95 @@
         <v>292</v>
       </c>
     </row>
+    <row r="418" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A418" s="2">
+        <v>415</v>
+      </c>
+      <c r="B418" s="2"/>
+      <c r="C418" s="17">
+        <v>44102</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G418" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A419" s="2">
+        <v>416</v>
+      </c>
+      <c r="B419" s="2"/>
+      <c r="C419" s="17"/>
+      <c r="D419" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G419" s="3"/>
+    </row>
+    <row r="420" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A420" s="2">
+        <v>417</v>
+      </c>
+      <c r="B420" s="2"/>
+      <c r="C420" s="17"/>
+      <c r="D420" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G420" s="3"/>
+    </row>
+    <row r="421" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A421" s="2">
+        <v>418</v>
+      </c>
+      <c r="B421" s="2"/>
+      <c r="C421" s="17"/>
+      <c r="D421" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G421" s="3"/>
+    </row>
+    <row r="422" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A422" s="2">
+        <v>419</v>
+      </c>
+      <c r="B422" s="2"/>
+      <c r="C422" s="17"/>
+      <c r="D422" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G422" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$422</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$423</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="315">
   <si>
     <t>年代</t>
   </si>
@@ -1975,6 +1975,13 @@
     <t>80代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2455,10 +2462,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G422"/>
+  <dimension ref="A1:G423"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A407" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J414" sqref="J414"/>
+      <selection activeCell="G424" sqref="G424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11309,7 +11316,9 @@
         <v>416</v>
       </c>
       <c r="B419" s="2"/>
-      <c r="C419" s="17"/>
+      <c r="C419" s="17">
+        <v>44103</v>
+      </c>
       <c r="D419" s="2" t="s">
         <v>142</v>
       </c>
@@ -11319,14 +11328,18 @@
       <c r="F419" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G419" s="3"/>
+      <c r="G419" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="420" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
         <v>417</v>
       </c>
       <c r="B420" s="2"/>
-      <c r="C420" s="17"/>
+      <c r="C420" s="17">
+        <v>44103</v>
+      </c>
       <c r="D420" s="2" t="s">
         <v>143</v>
       </c>
@@ -11336,14 +11349,18 @@
       <c r="F420" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G420" s="3"/>
+      <c r="G420" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="421" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
         <v>418</v>
       </c>
       <c r="B421" s="2"/>
-      <c r="C421" s="17"/>
+      <c r="C421" s="17">
+        <v>44103</v>
+      </c>
       <c r="D421" s="2" t="s">
         <v>143</v>
       </c>
@@ -11353,14 +11370,18 @@
       <c r="F421" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G421" s="3"/>
+      <c r="G421" s="3" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="422" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
         <v>419</v>
       </c>
       <c r="B422" s="2"/>
-      <c r="C422" s="17"/>
+      <c r="C422" s="17">
+        <v>44103</v>
+      </c>
       <c r="D422" s="2" t="s">
         <v>141</v>
       </c>
@@ -11370,7 +11391,30 @@
       <c r="F422" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G422" s="3"/>
+      <c r="G422" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A423" s="2">
+        <v>420</v>
+      </c>
+      <c r="B423" s="2"/>
+      <c r="C423" s="17">
+        <v>44104</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Honsv121\本庁ｃ\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$423</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$424</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="315">
   <si>
     <t>年代</t>
   </si>
@@ -2462,10 +2462,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G423"/>
+  <dimension ref="A1:G424"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A407" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G424" sqref="G424"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A411" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F425" sqref="F425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11416,6 +11416,27 @@
         <v>114</v>
       </c>
     </row>
+    <row r="424" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A424" s="2">
+        <v>421</v>
+      </c>
+      <c r="B424" s="2"/>
+      <c r="C424" s="17">
+        <v>44104</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Honsv121\本庁ｃ\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$424</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$426</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="316">
   <si>
     <t>年代</t>
   </si>
@@ -1989,6 +1989,13 @@
     <t>男</t>
     <rPh sb="0" eb="1">
       <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2462,10 +2469,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G424"/>
+  <dimension ref="A1:G426"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A411" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F425" sqref="F425"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A415" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G427" sqref="G427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11437,6 +11444,48 @@
         <v>204</v>
       </c>
     </row>
+    <row r="425" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A425" s="2">
+        <v>422</v>
+      </c>
+      <c r="B425" s="2"/>
+      <c r="C425" s="17">
+        <v>44105</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A426" s="2">
+        <v>423</v>
+      </c>
+      <c r="B426" s="2"/>
+      <c r="C426" s="17">
+        <v>44105</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$426</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$427</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="316">
   <si>
     <t>年代</t>
   </si>
@@ -2469,7 +2469,7 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G426"/>
+  <dimension ref="A1:G427"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A415" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G427" sqref="G427"/>
@@ -11486,6 +11486,27 @@
         <v>315</v>
       </c>
     </row>
+    <row r="427" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A427" s="2">
+        <v>424</v>
+      </c>
+      <c r="B427" s="2"/>
+      <c r="C427" s="17">
+        <v>44106</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$427</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$428</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="318">
   <si>
     <t>年代</t>
   </si>
@@ -1996,6 +1996,20 @@
     <t>自営業</t>
     <rPh sb="0" eb="3">
       <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2469,10 +2483,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G427"/>
+  <dimension ref="A1:G428"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A415" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G427" sqref="G427"/>
+      <selection activeCell="H428" sqref="H428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11507,6 +11521,27 @@
         <v>23</v>
       </c>
     </row>
+    <row r="428" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A428" s="2">
+        <v>425</v>
+      </c>
+      <c r="B428" s="2"/>
+      <c r="C428" s="17">
+        <v>44120</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="316">
   <si>
     <t>年代</t>
   </si>
@@ -1996,20 +1996,6 @@
     <t>自営業</t>
     <rPh sb="0" eb="3">
       <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男</t>
-    <rPh sb="0" eb="1">
-      <t>オトコ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2067,7 +2053,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2127,13 +2113,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2199,6 +2198,15 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2486,7 +2494,7 @@
   <dimension ref="A1:G428"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A415" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H428" sqref="H428"/>
+      <selection activeCell="I427" sqref="I427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11501,23 +11509,23 @@
       </c>
     </row>
     <row r="427" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A427" s="2">
+      <c r="A427" s="22">
         <v>424</v>
       </c>
-      <c r="B427" s="2"/>
-      <c r="C427" s="17">
+      <c r="B427" s="22"/>
+      <c r="C427" s="23">
         <v>44106</v>
       </c>
-      <c r="D427" s="2" t="s">
+      <c r="D427" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E427" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F427" s="2" t="s">
+      <c r="E427" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="F427" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="G427" s="3" t="s">
+      <c r="G427" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11525,28 +11533,21 @@
       <c r="A428" s="2">
         <v>425</v>
       </c>
-      <c r="B428" s="2"/>
-      <c r="C428" s="17">
-        <v>44120</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E428" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F428" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G428" s="3" t="s">
-        <v>292</v>
-      </c>
+      <c r="B428" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C428" s="20"/>
+      <c r="D428" s="20"/>
+      <c r="E428" s="20"/>
+      <c r="F428" s="20"/>
+      <c r="G428" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B409:G409"/>
     <mergeCell ref="B410:G410"/>
+    <mergeCell ref="B428:G428"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.94488188976377963" right="0.39370078740157483" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$428</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$429</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="317">
   <si>
     <t>年代</t>
   </si>
@@ -1996,6 +1996,13 @@
     <t>自営業</t>
     <rPh sb="0" eb="3">
       <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2003,7 +2010,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -2187,6 +2194,15 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2198,15 +2214,6 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2491,10 +2498,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G428"/>
+  <dimension ref="A1:G429"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A415" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I427" sqref="I427"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A418" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J428" sqref="J428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2507,15 +2514,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
@@ -11152,27 +11159,27 @@
       <c r="A409" s="2">
         <v>406</v>
       </c>
-      <c r="B409" s="19" t="s">
+      <c r="B409" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="C409" s="20"/>
-      <c r="D409" s="20"/>
-      <c r="E409" s="20"/>
-      <c r="F409" s="20"/>
-      <c r="G409" s="21"/>
+      <c r="C409" s="23"/>
+      <c r="D409" s="23"/>
+      <c r="E409" s="23"/>
+      <c r="F409" s="23"/>
+      <c r="G409" s="24"/>
     </row>
     <row r="410" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>407</v>
       </c>
-      <c r="B410" s="19" t="s">
+      <c r="B410" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="C410" s="20"/>
-      <c r="D410" s="20"/>
-      <c r="E410" s="20"/>
-      <c r="F410" s="20"/>
-      <c r="G410" s="21"/>
+      <c r="C410" s="23"/>
+      <c r="D410" s="23"/>
+      <c r="E410" s="23"/>
+      <c r="F410" s="23"/>
+      <c r="G410" s="24"/>
     </row>
     <row r="411" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
@@ -11509,23 +11516,23 @@
       </c>
     </row>
     <row r="427" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A427" s="22">
+      <c r="A427" s="18">
         <v>424</v>
       </c>
-      <c r="B427" s="22"/>
-      <c r="C427" s="23">
+      <c r="B427" s="18"/>
+      <c r="C427" s="19">
         <v>44106</v>
       </c>
-      <c r="D427" s="22" t="s">
+      <c r="D427" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E427" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F427" s="22" t="s">
+      <c r="E427" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F427" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G427" s="24" t="s">
+      <c r="G427" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -11533,14 +11540,29 @@
       <c r="A428" s="2">
         <v>425</v>
       </c>
-      <c r="B428" s="19" t="s">
+      <c r="B428" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="C428" s="20"/>
-      <c r="D428" s="20"/>
-      <c r="E428" s="20"/>
-      <c r="F428" s="20"/>
-      <c r="G428" s="21"/>
+      <c r="C428" s="23"/>
+      <c r="D428" s="23"/>
+      <c r="E428" s="23"/>
+      <c r="F428" s="23"/>
+      <c r="G428" s="24"/>
+    </row>
+    <row r="429" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A429" s="2"/>
+      <c r="B429" s="2"/>
+      <c r="C429" s="17"/>
+      <c r="D429" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G429" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="318">
   <si>
     <t>年代</t>
   </si>
@@ -2003,6 +2003,13 @@
     <t>40代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2501,7 +2508,7 @@
   <dimension ref="A1:G429"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A418" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J428" sqref="J428"/>
+      <selection activeCell="B431" sqref="B431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11550,9 +11557,13 @@
       <c r="G428" s="24"/>
     </row>
     <row r="429" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A429" s="2"/>
+      <c r="A429" s="2">
+        <v>425</v>
+      </c>
       <c r="B429" s="2"/>
-      <c r="C429" s="17"/>
+      <c r="C429" s="17">
+        <v>44133</v>
+      </c>
       <c r="D429" s="2" t="s">
         <v>316</v>
       </c>
@@ -11562,7 +11573,9 @@
       <c r="F429" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G429" s="3"/>
+      <c r="G429" s="3" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -11558,7 +11558,7 @@
     </row>
     <row r="429" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" s="17">

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$429</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$430</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="318">
   <si>
     <t>年代</t>
   </si>
@@ -2505,10 +2505,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G429"/>
+  <dimension ref="A1:G430"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A418" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B431" sqref="B431"/>
+      <selection activeCell="E431" sqref="E431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11577,6 +11577,23 @@
         <v>317</v>
       </c>
     </row>
+    <row r="430" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A430" s="2">
+        <v>427</v>
+      </c>
+      <c r="B430" s="2"/>
+      <c r="C430" s="2"/>
+      <c r="D430" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G430" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="318">
   <si>
     <t>年代</t>
   </si>
@@ -2508,7 +2508,7 @@
   <dimension ref="A1:G430"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A418" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E431" sqref="E431"/>
+      <selection activeCell="G432" sqref="G432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11582,7 +11582,9 @@
         <v>427</v>
       </c>
       <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
+      <c r="C430" s="17">
+        <v>44140</v>
+      </c>
       <c r="D430" s="2" t="s">
         <v>138</v>
       </c>
@@ -11592,7 +11594,9 @@
       <c r="F430" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G430" s="3"/>
+      <c r="G430" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$430</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$431</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="318">
   <si>
     <t>年代</t>
   </si>
@@ -2505,10 +2505,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G430"/>
+  <dimension ref="A1:G431"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A418" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G432" sqref="G432"/>
+      <selection activeCell="M428" sqref="M428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11598,6 +11598,21 @@
         <v>23</v>
       </c>
     </row>
+    <row r="431" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A431" s="2"/>
+      <c r="B431" s="2"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G431" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="318">
   <si>
     <t>年代</t>
   </si>
@@ -2507,8 +2507,8 @@
   </sheetPr>
   <dimension ref="A1:G431"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A418" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M428" sqref="M428"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A416" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B433" sqref="B433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11599,9 +11599,13 @@
       </c>
     </row>
     <row r="431" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A431" s="2"/>
+      <c r="A431" s="2">
+        <v>428</v>
+      </c>
       <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
+      <c r="C431" s="17">
+        <v>44145</v>
+      </c>
       <c r="D431" s="2" t="s">
         <v>138</v>
       </c>
@@ -11611,7 +11615,9 @@
       <c r="F431" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G431" s="3"/>
+      <c r="G431" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$431</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$434</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="318">
   <si>
     <t>年代</t>
   </si>
@@ -2505,10 +2505,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G431"/>
+  <dimension ref="A1:G434"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A416" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B433" sqref="B433"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A422" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J429" sqref="J429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11619,6 +11619,69 @@
         <v>23</v>
       </c>
     </row>
+    <row r="432" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A432" s="2">
+        <v>429</v>
+      </c>
+      <c r="B432" s="2"/>
+      <c r="C432" s="17">
+        <v>44149</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A433" s="2">
+        <v>430</v>
+      </c>
+      <c r="B433" s="2"/>
+      <c r="C433" s="17">
+        <v>44149</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A434" s="2">
+        <v>431</v>
+      </c>
+      <c r="B434" s="2"/>
+      <c r="C434" s="17">
+        <v>44150</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$434</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$435</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="318">
   <si>
     <t>年代</t>
   </si>
@@ -2505,10 +2505,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G434"/>
+  <dimension ref="A1:G435"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A422" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J429" sqref="J429"/>
+      <selection activeCell="G435" sqref="G435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11682,6 +11682,27 @@
         <v>209</v>
       </c>
     </row>
+    <row r="435" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A435" s="2">
+        <v>432</v>
+      </c>
+      <c r="B435" s="2"/>
+      <c r="C435" s="17">
+        <v>44151</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$435</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$436</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="318">
   <si>
     <t>年代</t>
   </si>
@@ -2067,7 +2067,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2140,13 +2140,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2221,6 +2232,9 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2505,10 +2519,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G435"/>
+  <dimension ref="A1:G436"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A422" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G435" sqref="G435"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A425" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D439" sqref="D439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11703,6 +11717,26 @@
         <v>250</v>
       </c>
     </row>
+    <row r="436" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A436" s="2">
+        <v>433</v>
+      </c>
+      <c r="C436" s="17">
+        <v>44152</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G436" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$436</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$441</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="319">
   <si>
     <t>年代</t>
   </si>
@@ -2010,6 +2010,13 @@
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2067,7 +2074,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2140,24 +2147,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2232,9 +2228,6 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2519,10 +2512,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G436"/>
+  <dimension ref="A1:G441"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A425" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D439" sqref="D439"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A434" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E442" sqref="E442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11721,19 +11714,125 @@
       <c r="A436" s="2">
         <v>433</v>
       </c>
+      <c r="B436" s="2"/>
       <c r="C436" s="17">
         <v>44152</v>
       </c>
-      <c r="D436" s="1" t="s">
+      <c r="D436" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E436" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F436" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G436" s="25" t="s">
+      <c r="E436" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G436" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A437" s="2">
+        <v>434</v>
+      </c>
+      <c r="B437" s="2"/>
+      <c r="C437" s="17">
+        <v>44153</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G437" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A438" s="2">
+        <v>435</v>
+      </c>
+      <c r="B438" s="2"/>
+      <c r="C438" s="17">
+        <v>44153</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G438" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A439" s="2">
+        <v>436</v>
+      </c>
+      <c r="B439" s="2"/>
+      <c r="C439" s="17">
+        <v>44153</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G439" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A440" s="2">
+        <v>437</v>
+      </c>
+      <c r="B440" s="2"/>
+      <c r="C440" s="17">
+        <v>44153</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A441" s="2">
+        <v>438</v>
+      </c>
+      <c r="B441" s="2"/>
+      <c r="C441" s="17">
+        <v>44153</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G441" s="5" t="s">
         <v>190</v>
       </c>
     </row>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$441</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$446</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="319">
   <si>
     <t>年代</t>
   </si>
@@ -2512,10 +2512,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G441"/>
+  <dimension ref="A1:G446"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A434" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E442" sqref="E442"/>
+      <selection activeCell="I444" sqref="I444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11836,6 +11836,105 @@
         <v>190</v>
       </c>
     </row>
+    <row r="442" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A442" s="2">
+        <v>439</v>
+      </c>
+      <c r="B442" s="2"/>
+      <c r="C442" s="17">
+        <v>44154</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A443" s="2">
+        <v>440</v>
+      </c>
+      <c r="B443" s="2"/>
+      <c r="C443" s="17">
+        <v>44154</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G443" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A444" s="2">
+        <v>441</v>
+      </c>
+      <c r="B444" s="2"/>
+      <c r="C444" s="17">
+        <v>44154</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A445" s="2">
+        <v>442</v>
+      </c>
+      <c r="B445" s="2"/>
+      <c r="C445" s="2"/>
+      <c r="D445" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G445" s="3"/>
+    </row>
+    <row r="446" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A446" s="2">
+        <v>443</v>
+      </c>
+      <c r="B446" s="2"/>
+      <c r="C446" s="2"/>
+      <c r="D446" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$446</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$447</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="321">
   <si>
     <t>年代</t>
   </si>
@@ -2017,6 +2017,17 @@
     <t>10代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2024,7 +2035,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -2512,10 +2523,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G446"/>
+  <dimension ref="A1:G447"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A434" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I444" sqref="I444"/>
+      <selection activeCell="J447" sqref="J447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11904,7 +11915,9 @@
         <v>442</v>
       </c>
       <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
+      <c r="C445" s="17">
+        <v>44155</v>
+      </c>
       <c r="D445" s="2" t="s">
         <v>145</v>
       </c>
@@ -11914,14 +11927,18 @@
       <c r="F445" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G445" s="3"/>
+      <c r="G445" s="3" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="446" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A446" s="2">
         <v>443</v>
       </c>
       <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
+      <c r="C446" s="17">
+        <v>44155</v>
+      </c>
       <c r="D446" s="2" t="s">
         <v>138</v>
       </c>
@@ -11933,6 +11950,27 @@
       </c>
       <c r="G446" s="3" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A447" s="2">
+        <v>444</v>
+      </c>
+      <c r="B447" s="2"/>
+      <c r="C447" s="17">
+        <v>44155</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$447</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$452</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="323">
   <si>
     <t>年代</t>
   </si>
@@ -2028,6 +2028,20 @@
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砺波市</t>
+    <rPh sb="0" eb="3">
+      <t>トナミシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2035,7 +2049,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -2523,10 +2537,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G447"/>
+  <dimension ref="A1:G452"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A434" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J447" sqref="J447"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A440" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G453" sqref="G453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11973,6 +11987,111 @@
         <v>320</v>
       </c>
     </row>
+    <row r="448" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A448" s="2">
+        <v>445</v>
+      </c>
+      <c r="B448" s="2"/>
+      <c r="C448" s="17">
+        <v>44156</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A449" s="2">
+        <v>446</v>
+      </c>
+      <c r="B449" s="2"/>
+      <c r="C449" s="17">
+        <v>44157</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A450" s="2">
+        <v>447</v>
+      </c>
+      <c r="B450" s="2"/>
+      <c r="C450" s="17">
+        <v>44157</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A451" s="2">
+        <v>448</v>
+      </c>
+      <c r="B451" s="2"/>
+      <c r="C451" s="17">
+        <v>44157</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A452" s="2">
+        <v>449</v>
+      </c>
+      <c r="B452" s="2"/>
+      <c r="C452" s="17">
+        <v>44158</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$452</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$453</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="323">
   <si>
     <t>年代</t>
   </si>
@@ -2537,10 +2537,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G452"/>
+  <dimension ref="A1:G453"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A440" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G453" sqref="G453"/>
+      <selection activeCell="H453" sqref="H453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12092,6 +12092,27 @@
         <v>23</v>
       </c>
     </row>
+    <row r="453" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A453" s="2">
+        <v>450</v>
+      </c>
+      <c r="B453" s="2"/>
+      <c r="C453" s="17">
+        <v>44159</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$453</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$456</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="324">
   <si>
     <t>年代</t>
   </si>
@@ -2042,6 +2042,13 @@
     <t>砺波市</t>
     <rPh sb="0" eb="3">
       <t>トナミシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パート職員</t>
+    <rPh sb="3" eb="5">
+      <t>ショクイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2537,10 +2544,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G453"/>
+  <dimension ref="A1:G456"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A440" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H453" sqref="H453"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A441" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G456" sqref="G456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12113,6 +12120,65 @@
         <v>236</v>
       </c>
     </row>
+    <row r="454" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A454" s="2">
+        <v>451</v>
+      </c>
+      <c r="B454" s="2"/>
+      <c r="C454" s="17">
+        <v>44160</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G454" s="3"/>
+    </row>
+    <row r="455" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A455" s="2">
+        <v>452</v>
+      </c>
+      <c r="B455" s="2"/>
+      <c r="C455" s="17">
+        <v>44160</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A456" s="2">
+        <v>453</v>
+      </c>
+      <c r="B456" s="2"/>
+      <c r="C456" s="17">
+        <v>44160</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G456" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$456</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$459</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="325">
   <si>
     <t>年代</t>
   </si>
@@ -2049,6 +2049,13 @@
     <t>パート職員</t>
     <rPh sb="3" eb="5">
       <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2544,10 +2551,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G456"/>
+  <dimension ref="A1:G459"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A441" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G456" sqref="G456"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A447" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M457" sqref="M457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12179,6 +12186,69 @@
       </c>
       <c r="G456" s="3"/>
     </row>
+    <row r="457" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A457" s="2">
+        <v>454</v>
+      </c>
+      <c r="B457" s="2"/>
+      <c r="C457" s="17">
+        <v>44161</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G457" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A458" s="2">
+        <v>455</v>
+      </c>
+      <c r="B458" s="2"/>
+      <c r="C458" s="17">
+        <v>44161</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G458" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A459" s="2">
+        <v>456</v>
+      </c>
+      <c r="B459" s="2"/>
+      <c r="C459" s="17">
+        <v>44161</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G459" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$459</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$465</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="326">
   <si>
     <t>年代</t>
   </si>
@@ -2056,6 +2056,13 @@
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2551,10 +2558,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G459"/>
+  <dimension ref="A1:G465"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A447" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M457" sqref="M457"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A451" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G463" sqref="G463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12249,6 +12256,132 @@
         <v>21</v>
       </c>
     </row>
+    <row r="460" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A460" s="2">
+        <v>457</v>
+      </c>
+      <c r="B460" s="2"/>
+      <c r="C460" s="17">
+        <v>44162</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A461" s="2">
+        <v>458</v>
+      </c>
+      <c r="B461" s="2"/>
+      <c r="C461" s="17">
+        <v>44162</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A462" s="2">
+        <v>459</v>
+      </c>
+      <c r="B462" s="2"/>
+      <c r="C462" s="17">
+        <v>44162</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A463" s="2">
+        <v>460</v>
+      </c>
+      <c r="B463" s="2"/>
+      <c r="C463" s="17">
+        <v>44162</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A464" s="2">
+        <v>461</v>
+      </c>
+      <c r="B464" s="2"/>
+      <c r="C464" s="17">
+        <v>44163</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A465" s="2">
+        <v>462</v>
+      </c>
+      <c r="B465" s="2"/>
+      <c r="C465" s="17">
+        <v>44164</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$465</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$466</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="327">
   <si>
     <t>年代</t>
   </si>
@@ -2063,6 +2063,13 @@
     <t>自営業</t>
     <rPh sb="0" eb="3">
       <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2558,10 +2565,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G465"/>
+  <dimension ref="A1:G466"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A451" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G463" sqref="G463"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A457" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F469" sqref="F469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12382,6 +12389,27 @@
         <v>325</v>
       </c>
     </row>
+    <row r="466" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A466" s="2">
+        <v>463</v>
+      </c>
+      <c r="B466" s="2"/>
+      <c r="C466" s="17">
+        <v>44166</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G466" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$466</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$467</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="327">
   <si>
     <t>年代</t>
   </si>
@@ -2565,10 +2565,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G466"/>
+  <dimension ref="A1:G467"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A457" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F469" sqref="F469"/>
+      <selection activeCell="H467" sqref="H467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12410,6 +12410,27 @@
         <v>326</v>
       </c>
     </row>
+    <row r="467" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A467" s="2">
+        <v>464</v>
+      </c>
+      <c r="B467" s="2"/>
+      <c r="C467" s="17">
+        <v>44167</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$467</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$468</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="327">
   <si>
     <t>年代</t>
   </si>
@@ -2565,10 +2565,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G467"/>
+  <dimension ref="A1:G468"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A457" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H467" sqref="H467"/>
+      <selection activeCell="D470" sqref="D470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12431,6 +12431,27 @@
         <v>250</v>
       </c>
     </row>
+    <row r="468" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A468" s="2">
+        <v>465</v>
+      </c>
+      <c r="B468" s="2"/>
+      <c r="C468" s="17">
+        <v>44170</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E29180C-26D8-4176-963D-457BC25447CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="発生状況一覧" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$468</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$470</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="327">
   <si>
     <t>年代</t>
   </si>
@@ -2077,7 +2078,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -2127,7 +2128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2200,13 +2201,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2281,6 +2302,24 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2561,14 +2600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G468"/>
+  <dimension ref="A1:H472"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A457" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D470" sqref="D470"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A460" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H470" sqref="H470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12368,7 +12407,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A465" s="2">
         <v>462</v>
       </c>
@@ -12389,7 +12428,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
         <v>463</v>
       </c>
@@ -12410,7 +12449,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
         <v>464</v>
       </c>
@@ -12431,7 +12470,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
         <v>465</v>
       </c>
@@ -12451,6 +12490,63 @@
       <c r="G468" s="3" t="s">
         <v>190</v>
       </c>
+    </row>
+    <row r="469" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A469" s="2">
+        <v>466</v>
+      </c>
+      <c r="B469" s="2"/>
+      <c r="C469" s="17">
+        <v>44175</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A470" s="2">
+        <v>467</v>
+      </c>
+      <c r="B470" s="2"/>
+      <c r="C470" s="17">
+        <v>44175</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A471" s="25"/>
+      <c r="B471" s="26"/>
+      <c r="C471" s="27"/>
+      <c r="D471" s="26"/>
+      <c r="E471" s="26"/>
+      <c r="F471" s="26"/>
+      <c r="G471" s="30"/>
+      <c r="H471" s="29"/>
+    </row>
+    <row r="472" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D472" s="28"/>
+      <c r="E472" s="28"/>
+      <c r="G472" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E29180C-26D8-4176-963D-457BC25447CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="発生状況一覧" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$470</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$481</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="329">
   <si>
     <t>年代</t>
   </si>
@@ -2071,6 +2070,20 @@
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2078,7 +2091,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -2128,7 +2141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2201,33 +2214,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2291,6 +2284,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2303,23 +2299,8 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2600,14 +2581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H472"/>
+  <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A460" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H470" sqref="H470"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A468" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J475" sqref="J475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2620,15 +2601,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
@@ -11265,27 +11246,27 @@
       <c r="A409" s="2">
         <v>406</v>
       </c>
-      <c r="B409" s="22" t="s">
+      <c r="B409" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="C409" s="23"/>
-      <c r="D409" s="23"/>
-      <c r="E409" s="23"/>
-      <c r="F409" s="23"/>
-      <c r="G409" s="24"/>
+      <c r="C409" s="24"/>
+      <c r="D409" s="24"/>
+      <c r="E409" s="24"/>
+      <c r="F409" s="24"/>
+      <c r="G409" s="25"/>
     </row>
     <row r="410" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>407</v>
       </c>
-      <c r="B410" s="22" t="s">
+      <c r="B410" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="C410" s="23"/>
-      <c r="D410" s="23"/>
-      <c r="E410" s="23"/>
-      <c r="F410" s="23"/>
-      <c r="G410" s="24"/>
+      <c r="C410" s="24"/>
+      <c r="D410" s="24"/>
+      <c r="E410" s="24"/>
+      <c r="F410" s="24"/>
+      <c r="G410" s="25"/>
     </row>
     <row r="411" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
@@ -11646,14 +11627,14 @@
       <c r="A428" s="2">
         <v>425</v>
       </c>
-      <c r="B428" s="22" t="s">
+      <c r="B428" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="C428" s="23"/>
-      <c r="D428" s="23"/>
-      <c r="E428" s="23"/>
-      <c r="F428" s="23"/>
-      <c r="G428" s="24"/>
+      <c r="C428" s="24"/>
+      <c r="D428" s="24"/>
+      <c r="E428" s="24"/>
+      <c r="F428" s="24"/>
+      <c r="G428" s="25"/>
     </row>
     <row r="429" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
@@ -12534,26 +12515,232 @@
       </c>
     </row>
     <row r="471" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A471" s="25"/>
-      <c r="B471" s="26"/>
-      <c r="C471" s="27"/>
-      <c r="D471" s="26"/>
-      <c r="E471" s="26"/>
-      <c r="F471" s="26"/>
-      <c r="G471" s="30"/>
-      <c r="H471" s="29"/>
+      <c r="A471" s="2">
+        <v>468</v>
+      </c>
+      <c r="B471" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C471" s="24"/>
+      <c r="D471" s="24"/>
+      <c r="E471" s="24"/>
+      <c r="F471" s="24"/>
+      <c r="G471" s="25"/>
+      <c r="H471" s="21"/>
     </row>
     <row r="472" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D472" s="28"/>
-      <c r="E472" s="28"/>
-      <c r="G472" s="29"/>
+      <c r="A472" s="2">
+        <v>469</v>
+      </c>
+      <c r="B472" s="2"/>
+      <c r="C472" s="17">
+        <v>44175</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G472" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A473" s="2">
+        <v>470</v>
+      </c>
+      <c r="B473" s="2"/>
+      <c r="C473" s="17">
+        <v>44176</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G473" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A474" s="2">
+        <v>471</v>
+      </c>
+      <c r="B474" s="2"/>
+      <c r="C474" s="17">
+        <v>44176</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G474" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A475" s="2">
+        <v>472</v>
+      </c>
+      <c r="B475" s="2"/>
+      <c r="C475" s="17">
+        <v>44176</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G475" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A476" s="2">
+        <v>473</v>
+      </c>
+      <c r="B476" s="2"/>
+      <c r="C476" s="17">
+        <v>44176</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G476" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A477" s="2">
+        <v>474</v>
+      </c>
+      <c r="B477" s="2"/>
+      <c r="C477" s="17">
+        <v>44176</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G477" s="26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A478" s="2">
+        <v>475</v>
+      </c>
+      <c r="B478" s="2"/>
+      <c r="C478" s="17">
+        <v>44177</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G478" s="26"/>
+    </row>
+    <row r="479" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A479" s="2">
+        <v>476</v>
+      </c>
+      <c r="B479" s="2"/>
+      <c r="C479" s="17">
+        <v>44177</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G479" s="26"/>
+    </row>
+    <row r="480" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A480" s="2">
+        <v>477</v>
+      </c>
+      <c r="B480" s="2"/>
+      <c r="C480" s="17">
+        <v>44177</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G480" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A481" s="2">
+        <v>478</v>
+      </c>
+      <c r="B481" s="2"/>
+      <c r="C481" s="17">
+        <v>44178</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G481" s="26" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B409:G409"/>
     <mergeCell ref="B410:G410"/>
     <mergeCell ref="B428:G428"/>
+    <mergeCell ref="B471:G471"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.94488188976377963" right="0.39370078740157483" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$481</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$484</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="330">
   <si>
     <t>年代</t>
   </si>
@@ -2084,6 +2084,13 @@
     <t>自営業</t>
     <rPh sb="0" eb="3">
       <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山形県</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガタケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2287,6 +2294,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2298,9 +2308,6 @@
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2585,10 +2592,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H481"/>
+  <dimension ref="A1:H484"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A468" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J475" sqref="J475"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A471" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I483" sqref="I483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2601,15 +2608,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
@@ -11246,27 +11253,27 @@
       <c r="A409" s="2">
         <v>406</v>
       </c>
-      <c r="B409" s="23" t="s">
+      <c r="B409" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="C409" s="24"/>
-      <c r="D409" s="24"/>
-      <c r="E409" s="24"/>
-      <c r="F409" s="24"/>
-      <c r="G409" s="25"/>
+      <c r="C409" s="25"/>
+      <c r="D409" s="25"/>
+      <c r="E409" s="25"/>
+      <c r="F409" s="25"/>
+      <c r="G409" s="26"/>
     </row>
     <row r="410" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>407</v>
       </c>
-      <c r="B410" s="23" t="s">
+      <c r="B410" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="C410" s="24"/>
-      <c r="D410" s="24"/>
-      <c r="E410" s="24"/>
-      <c r="F410" s="24"/>
-      <c r="G410" s="25"/>
+      <c r="C410" s="25"/>
+      <c r="D410" s="25"/>
+      <c r="E410" s="25"/>
+      <c r="F410" s="25"/>
+      <c r="G410" s="26"/>
     </row>
     <row r="411" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
@@ -11627,14 +11634,14 @@
       <c r="A428" s="2">
         <v>425</v>
       </c>
-      <c r="B428" s="23" t="s">
+      <c r="B428" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="C428" s="24"/>
-      <c r="D428" s="24"/>
-      <c r="E428" s="24"/>
-      <c r="F428" s="24"/>
-      <c r="G428" s="25"/>
+      <c r="C428" s="25"/>
+      <c r="D428" s="25"/>
+      <c r="E428" s="25"/>
+      <c r="F428" s="25"/>
+      <c r="G428" s="26"/>
     </row>
     <row r="429" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
@@ -12518,14 +12525,14 @@
       <c r="A471" s="2">
         <v>468</v>
       </c>
-      <c r="B471" s="23" t="s">
+      <c r="B471" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="C471" s="24"/>
-      <c r="D471" s="24"/>
-      <c r="E471" s="24"/>
-      <c r="F471" s="24"/>
-      <c r="G471" s="25"/>
+      <c r="C471" s="25"/>
+      <c r="D471" s="25"/>
+      <c r="E471" s="25"/>
+      <c r="F471" s="25"/>
+      <c r="G471" s="26"/>
       <c r="H471" s="21"/>
     </row>
     <row r="472" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -12608,7 +12615,7 @@
       <c r="F475" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G475" s="26" t="s">
+      <c r="G475" s="22" t="s">
         <v>117</v>
       </c>
     </row>
@@ -12629,7 +12636,7 @@
       <c r="F476" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G476" s="26" t="s">
+      <c r="G476" s="22" t="s">
         <v>114</v>
       </c>
     </row>
@@ -12650,7 +12657,7 @@
       <c r="F477" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G477" s="26" t="s">
+      <c r="G477" s="22" t="s">
         <v>328</v>
       </c>
     </row>
@@ -12671,7 +12678,7 @@
       <c r="F478" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G478" s="26"/>
+      <c r="G478" s="22"/>
     </row>
     <row r="479" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A479" s="2">
@@ -12690,7 +12697,7 @@
       <c r="F479" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G479" s="26"/>
+      <c r="G479" s="22"/>
     </row>
     <row r="480" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
@@ -12709,7 +12716,7 @@
       <c r="F480" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G480" s="26" t="s">
+      <c r="G480" s="22" t="s">
         <v>292</v>
       </c>
     </row>
@@ -12730,9 +12737,68 @@
       <c r="F481" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G481" s="26" t="s">
+      <c r="G481" s="22" t="s">
         <v>292</v>
       </c>
+    </row>
+    <row r="482" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A482" s="2">
+        <v>479</v>
+      </c>
+      <c r="B482" s="2"/>
+      <c r="C482" s="17">
+        <v>44179</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G482" s="3"/>
+    </row>
+    <row r="483" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A483" s="2">
+        <v>480</v>
+      </c>
+      <c r="B483" s="2"/>
+      <c r="C483" s="17">
+        <v>44180</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A484" s="2">
+        <v>481</v>
+      </c>
+      <c r="B484" s="2"/>
+      <c r="C484" s="17">
+        <v>44180</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G484" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$484</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$487</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="330">
   <si>
     <t>年代</t>
   </si>
@@ -2592,10 +2592,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H484"/>
+  <dimension ref="A1:H487"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A471" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I483" sqref="I483"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A477" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G488" sqref="G488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12800,6 +12800,69 @@
       </c>
       <c r="G484" s="3"/>
     </row>
+    <row r="485" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A485" s="2">
+        <v>482</v>
+      </c>
+      <c r="B485" s="2"/>
+      <c r="C485" s="17">
+        <v>44181</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A486" s="2">
+        <v>483</v>
+      </c>
+      <c r="B486" s="2"/>
+      <c r="C486" s="17">
+        <v>44181</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A487" s="2">
+        <v>484</v>
+      </c>
+      <c r="B487" s="2"/>
+      <c r="C487" s="17">
+        <v>44181</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD688ED5-15A5-4ADC-A90C-BDDA038BA46E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="発生状況一覧" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$487</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$491</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="330">
   <si>
     <t>年代</t>
   </si>
@@ -2098,7 +2099,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -2588,14 +2589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H487"/>
+  <dimension ref="A1:H491"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A477" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G488" sqref="G488"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A483" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H491" sqref="H491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12863,6 +12864,90 @@
         <v>190</v>
       </c>
     </row>
+    <row r="488" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A488" s="2">
+        <v>485</v>
+      </c>
+      <c r="B488" s="2"/>
+      <c r="C488" s="17">
+        <v>44181</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A489" s="2">
+        <v>486</v>
+      </c>
+      <c r="B489" s="2"/>
+      <c r="C489" s="17">
+        <v>44182</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A490" s="2">
+        <v>487</v>
+      </c>
+      <c r="B490" s="2"/>
+      <c r="C490" s="17">
+        <v>44182</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A491" s="2">
+        <v>488</v>
+      </c>
+      <c r="B491" s="2"/>
+      <c r="C491" s="17">
+        <v>44182</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
-  <workbookPr hidePivotFieldList="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD688ED5-15A5-4ADC-A90C-BDDA038BA46E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="発生状況一覧" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$491</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$501</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="333">
   <si>
     <t>年代</t>
   </si>
@@ -2093,13 +2092,34 @@
     <rPh sb="0" eb="3">
       <t>ヤマガタケン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パート従業員</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>富山市</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -2589,14 +2609,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H491"/>
+  <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A483" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H491" sqref="H491"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A489" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G501" sqref="G501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12948,6 +12968,214 @@
         <v>114</v>
       </c>
     </row>
+    <row r="492" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A492" s="2">
+        <v>489</v>
+      </c>
+      <c r="B492" s="2"/>
+      <c r="C492" s="17">
+        <v>44183</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A493" s="2">
+        <v>490</v>
+      </c>
+      <c r="B493" s="2"/>
+      <c r="C493" s="17">
+        <v>44183</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A494" s="2">
+        <v>491</v>
+      </c>
+      <c r="B494" s="2"/>
+      <c r="C494" s="17">
+        <v>44183</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A495" s="2">
+        <v>492</v>
+      </c>
+      <c r="B495" s="2"/>
+      <c r="C495" s="17">
+        <v>44183</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A496" s="2">
+        <v>493</v>
+      </c>
+      <c r="B496" s="2"/>
+      <c r="C496" s="17">
+        <v>44183</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A497" s="2">
+        <v>494</v>
+      </c>
+      <c r="B497" s="2"/>
+      <c r="C497" s="17">
+        <v>44184</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A498" s="2">
+        <v>495</v>
+      </c>
+      <c r="B498" s="2"/>
+      <c r="C498" s="17">
+        <v>44184</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A499" s="2">
+        <v>496</v>
+      </c>
+      <c r="B499" s="2"/>
+      <c r="C499" s="17">
+        <v>44184</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A500" s="2">
+        <v>497</v>
+      </c>
+      <c r="B500" s="2"/>
+      <c r="C500" s="17">
+        <v>44185</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A501" s="2">
+        <v>498</v>
+      </c>
+      <c r="B501" s="2"/>
+      <c r="C501" s="17">
+        <v>44185</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E501" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G501" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$501</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$510</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="332">
   <si>
     <t>年代</t>
   </si>
@@ -2101,13 +2101,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>イン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2613,10 +2606,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:H510"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A489" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G501" sqref="G501"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A496" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H510" sqref="H510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -13091,7 +13084,7 @@
         <v>162</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>331</v>
+        <v>114</v>
       </c>
     </row>
     <row r="498" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13109,7 +13102,7 @@
         <v>176</v>
       </c>
       <c r="F498" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G498" s="3" t="s">
         <v>114</v>
@@ -13175,6 +13168,185 @@
         <v>307</v>
       </c>
       <c r="G501" s="3"/>
+    </row>
+    <row r="502" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A502" s="2">
+        <v>499</v>
+      </c>
+      <c r="B502" s="2"/>
+      <c r="C502" s="17">
+        <v>44186</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A503" s="2">
+        <v>500</v>
+      </c>
+      <c r="B503" s="2"/>
+      <c r="C503" s="17">
+        <v>44186</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G503" s="3"/>
+    </row>
+    <row r="504" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A504" s="2">
+        <v>501</v>
+      </c>
+      <c r="B504" s="2"/>
+      <c r="C504" s="17">
+        <v>44186</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A505" s="2">
+        <v>502</v>
+      </c>
+      <c r="B505" s="2"/>
+      <c r="C505" s="17">
+        <v>44186</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E505" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A506" s="2">
+        <v>503</v>
+      </c>
+      <c r="B506" s="2"/>
+      <c r="C506" s="17">
+        <v>44186</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G506" s="3"/>
+    </row>
+    <row r="507" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A507" s="2">
+        <v>504</v>
+      </c>
+      <c r="B507" s="2"/>
+      <c r="C507" s="17">
+        <v>44186</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G507" s="3"/>
+    </row>
+    <row r="508" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A508" s="2">
+        <v>505</v>
+      </c>
+      <c r="B508" s="2"/>
+      <c r="C508" s="17">
+        <v>44186</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A509" s="2">
+        <v>506</v>
+      </c>
+      <c r="B509" s="2"/>
+      <c r="C509" s="17">
+        <v>44186</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G509" s="3"/>
+    </row>
+    <row r="510" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A510" s="2">
+        <v>507</v>
+      </c>
+      <c r="B510" s="2"/>
+      <c r="C510" s="17">
+        <v>44186</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G510" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$510</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$514</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="333">
   <si>
     <t>年代</t>
   </si>
@@ -2106,6 +2106,13 @@
   </si>
   <si>
     <t>富山市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2606,10 +2613,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H510"/>
+  <dimension ref="A1:H514"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A496" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H510" sqref="H510"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A502" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H509" sqref="H509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -13348,6 +13355,90 @@
       </c>
       <c r="G510" s="3"/>
     </row>
+    <row r="511" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A511" s="2">
+        <v>508</v>
+      </c>
+      <c r="B511" s="2"/>
+      <c r="C511" s="17">
+        <v>44187</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E511" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G511" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A512" s="2">
+        <v>509</v>
+      </c>
+      <c r="B512" s="2"/>
+      <c r="C512" s="17">
+        <v>44187</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G512" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A513" s="2">
+        <v>510</v>
+      </c>
+      <c r="B513" s="2"/>
+      <c r="C513" s="17">
+        <v>44187</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G513" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A514" s="2">
+        <v>511</v>
+      </c>
+      <c r="B514" s="2"/>
+      <c r="C514" s="17">
+        <v>44187</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G514" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$514</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$524</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="335">
   <si>
     <t>年代</t>
   </si>
@@ -2112,6 +2112,23 @@
     <t>40代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育園児</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクエン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2613,10 +2630,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H514"/>
+  <dimension ref="A1:H524"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A502" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H509" sqref="H509"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A511" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H524" sqref="H524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -13439,6 +13456,212 @@
         <v>23</v>
       </c>
     </row>
+    <row r="515" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A515" s="2">
+        <v>512</v>
+      </c>
+      <c r="B515" s="2"/>
+      <c r="C515" s="17">
+        <v>44187</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G515" s="3"/>
+    </row>
+    <row r="516" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A516" s="2">
+        <v>513</v>
+      </c>
+      <c r="B516" s="2"/>
+      <c r="C516" s="17">
+        <v>44188</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G516" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A517" s="2">
+        <v>514</v>
+      </c>
+      <c r="B517" s="2"/>
+      <c r="C517" s="17">
+        <v>44188</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G517" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A518" s="2">
+        <v>515</v>
+      </c>
+      <c r="B518" s="2"/>
+      <c r="C518" s="17">
+        <v>44188</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G518" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A519" s="2">
+        <v>516</v>
+      </c>
+      <c r="B519" s="2"/>
+      <c r="C519" s="17">
+        <v>44188</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A520" s="2">
+        <v>517</v>
+      </c>
+      <c r="B520" s="2"/>
+      <c r="C520" s="17">
+        <v>44189</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G520" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A521" s="2">
+        <v>518</v>
+      </c>
+      <c r="B521" s="2"/>
+      <c r="C521" s="17">
+        <v>44189</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G521" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A522" s="2">
+        <v>519</v>
+      </c>
+      <c r="B522" s="2"/>
+      <c r="C522" s="17">
+        <v>44189</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G522" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A523" s="2">
+        <v>520</v>
+      </c>
+      <c r="B523" s="2"/>
+      <c r="C523" s="17">
+        <v>44189</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A524" s="2">
+        <v>521</v>
+      </c>
+      <c r="B524" s="2"/>
+      <c r="C524" s="17">
+        <v>44189</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G524" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$549</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$612</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="367">
   <si>
     <t>年代</t>
   </si>
@@ -2167,6 +2167,204 @@
     <t>大阪府</t>
     <rPh sb="0" eb="3">
       <t>オオサカフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>富山市</t>
+    <rPh sb="0" eb="3">
+      <t>トヤマシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パート従業員</t>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入善町</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウゼンマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射水市</t>
+    <rPh sb="0" eb="3">
+      <t>イミズシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魚津市</t>
+    <rPh sb="0" eb="3">
+      <t>ウオヅシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛知県</t>
+    <rPh sb="0" eb="3">
+      <t>アイチケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店店員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡県</t>
+    <rPh sb="0" eb="3">
+      <t>フクオカケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川県</t>
+    <rPh sb="0" eb="4">
+      <t>カナガワケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都府</t>
+    <rPh sb="0" eb="3">
+      <t>キョウトフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷見市</t>
+    <rPh sb="0" eb="3">
+      <t>ヒミシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教員</t>
+    <rPh sb="0" eb="2">
+      <t>キョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2373,9 +2571,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2383,6 +2578,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2668,10 +2866,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H549"/>
+  <dimension ref="A1:H612"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A537" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F550" sqref="F550"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A604" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H612" sqref="H612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2684,15 +2882,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
@@ -11329,27 +11527,27 @@
       <c r="A409" s="2">
         <v>406</v>
       </c>
-      <c r="B409" s="24" t="s">
+      <c r="B409" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="C409" s="25"/>
-      <c r="D409" s="25"/>
-      <c r="E409" s="25"/>
-      <c r="F409" s="25"/>
-      <c r="G409" s="26"/>
+      <c r="C409" s="24"/>
+      <c r="D409" s="24"/>
+      <c r="E409" s="24"/>
+      <c r="F409" s="24"/>
+      <c r="G409" s="25"/>
     </row>
     <row r="410" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>407</v>
       </c>
-      <c r="B410" s="24" t="s">
+      <c r="B410" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="C410" s="25"/>
-      <c r="D410" s="25"/>
-      <c r="E410" s="25"/>
-      <c r="F410" s="25"/>
-      <c r="G410" s="26"/>
+      <c r="C410" s="24"/>
+      <c r="D410" s="24"/>
+      <c r="E410" s="24"/>
+      <c r="F410" s="24"/>
+      <c r="G410" s="25"/>
     </row>
     <row r="411" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
@@ -11710,14 +11908,14 @@
       <c r="A428" s="2">
         <v>425</v>
       </c>
-      <c r="B428" s="24" t="s">
+      <c r="B428" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="C428" s="25"/>
-      <c r="D428" s="25"/>
-      <c r="E428" s="25"/>
-      <c r="F428" s="25"/>
-      <c r="G428" s="26"/>
+      <c r="C428" s="24"/>
+      <c r="D428" s="24"/>
+      <c r="E428" s="24"/>
+      <c r="F428" s="24"/>
+      <c r="G428" s="25"/>
     </row>
     <row r="429" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
@@ -12601,14 +12799,14 @@
       <c r="A471" s="2">
         <v>468</v>
       </c>
-      <c r="B471" s="24" t="s">
+      <c r="B471" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="C471" s="25"/>
-      <c r="D471" s="25"/>
-      <c r="E471" s="25"/>
-      <c r="F471" s="25"/>
-      <c r="G471" s="26"/>
+      <c r="C471" s="24"/>
+      <c r="D471" s="24"/>
+      <c r="E471" s="24"/>
+      <c r="F471" s="24"/>
+      <c r="G471" s="25"/>
       <c r="H471" s="21"/>
     </row>
     <row r="472" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -14205,8 +14403,1315 @@
         <v>190</v>
       </c>
     </row>
+    <row r="550" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A550" s="2">
+        <v>547</v>
+      </c>
+      <c r="B550" s="2"/>
+      <c r="C550" s="17">
+        <v>44558</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A551" s="2">
+        <v>548</v>
+      </c>
+      <c r="B551" s="2"/>
+      <c r="C551" s="17">
+        <v>44558</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A552" s="2">
+        <v>549</v>
+      </c>
+      <c r="B552" s="2"/>
+      <c r="C552" s="17">
+        <v>44556</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A553" s="2">
+        <v>550</v>
+      </c>
+      <c r="B553" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C553" s="24"/>
+      <c r="D553" s="24"/>
+      <c r="E553" s="24"/>
+      <c r="F553" s="24"/>
+      <c r="G553" s="25"/>
+    </row>
+    <row r="554" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A554" s="2">
+        <v>551</v>
+      </c>
+      <c r="B554" s="2"/>
+      <c r="C554" s="17">
+        <v>44558</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A555" s="2">
+        <v>552</v>
+      </c>
+      <c r="B555" s="2"/>
+      <c r="C555" s="17">
+        <v>44558</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A556" s="2">
+        <v>553</v>
+      </c>
+      <c r="B556" s="2"/>
+      <c r="C556" s="17">
+        <v>44559</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G556" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A557" s="2">
+        <v>554</v>
+      </c>
+      <c r="B557" s="2"/>
+      <c r="C557" s="17">
+        <v>44559</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G557" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A558" s="2">
+        <v>555</v>
+      </c>
+      <c r="B558" s="2"/>
+      <c r="C558" s="17">
+        <v>44559</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A559" s="2">
+        <v>556</v>
+      </c>
+      <c r="B559" s="2"/>
+      <c r="C559" s="17">
+        <v>44560</v>
+      </c>
+      <c r="D559" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G559" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A560" s="2">
+        <v>557</v>
+      </c>
+      <c r="B560" s="2"/>
+      <c r="C560" s="17">
+        <v>44560</v>
+      </c>
+      <c r="D560" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G560" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A561" s="2">
+        <v>558</v>
+      </c>
+      <c r="B561" s="2"/>
+      <c r="C561" s="17">
+        <v>44560</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G561" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A562" s="2">
+        <v>559</v>
+      </c>
+      <c r="B562" s="2"/>
+      <c r="C562" s="17">
+        <v>44561</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A563" s="2">
+        <v>560</v>
+      </c>
+      <c r="B563" s="2"/>
+      <c r="C563" s="17">
+        <v>44561</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E563" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G563" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A564" s="2">
+        <v>561</v>
+      </c>
+      <c r="B564" s="2"/>
+      <c r="C564" s="17">
+        <v>44561</v>
+      </c>
+      <c r="D564" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E564" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G564" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A565" s="2">
+        <v>562</v>
+      </c>
+      <c r="B565" s="2"/>
+      <c r="C565" s="17">
+        <v>44561</v>
+      </c>
+      <c r="D565" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E565" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G565" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A566" s="2">
+        <v>563</v>
+      </c>
+      <c r="B566" s="2"/>
+      <c r="C566" s="17">
+        <v>44561</v>
+      </c>
+      <c r="D566" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G566" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A567" s="2">
+        <v>564</v>
+      </c>
+      <c r="B567" s="2"/>
+      <c r="C567" s="17">
+        <v>44561</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G567" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A568" s="2">
+        <v>565</v>
+      </c>
+      <c r="B568" s="2"/>
+      <c r="C568" s="17">
+        <v>44561</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A569" s="2">
+        <v>566</v>
+      </c>
+      <c r="B569" s="2"/>
+      <c r="C569" s="17">
+        <v>44561</v>
+      </c>
+      <c r="D569" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E569" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G569" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A570" s="2">
+        <v>567</v>
+      </c>
+      <c r="B570" s="2"/>
+      <c r="C570" s="17">
+        <v>44197</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E570" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G570" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A571" s="2">
+        <v>568</v>
+      </c>
+      <c r="B571" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="C571" s="24"/>
+      <c r="D571" s="24"/>
+      <c r="E571" s="24"/>
+      <c r="F571" s="24"/>
+      <c r="G571" s="25"/>
+    </row>
+    <row r="572" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A572" s="2">
+        <v>569</v>
+      </c>
+      <c r="B572" s="2"/>
+      <c r="C572" s="17">
+        <v>44197</v>
+      </c>
+      <c r="D572" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E572" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G572" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A573" s="2">
+        <v>570</v>
+      </c>
+      <c r="B573" s="2"/>
+      <c r="C573" s="17">
+        <v>44197</v>
+      </c>
+      <c r="D573" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A574" s="2">
+        <v>571</v>
+      </c>
+      <c r="B574" s="2"/>
+      <c r="C574" s="17">
+        <v>44197</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E574" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G574" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A575" s="2">
+        <v>572</v>
+      </c>
+      <c r="B575" s="2"/>
+      <c r="C575" s="17">
+        <v>44197</v>
+      </c>
+      <c r="D575" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E575" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A576" s="2">
+        <v>573</v>
+      </c>
+      <c r="B576" s="2"/>
+      <c r="C576" s="17">
+        <v>44197</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E576" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A577" s="2">
+        <v>574</v>
+      </c>
+      <c r="B577" s="2"/>
+      <c r="C577" s="17">
+        <v>44198</v>
+      </c>
+      <c r="D577" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E577" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A578" s="2">
+        <v>575</v>
+      </c>
+      <c r="B578" s="2"/>
+      <c r="C578" s="17">
+        <v>44198</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E578" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G578" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A579" s="2">
+        <v>576</v>
+      </c>
+      <c r="B579" s="2"/>
+      <c r="C579" s="17">
+        <v>44198</v>
+      </c>
+      <c r="D579" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E579" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A580" s="2">
+        <v>577</v>
+      </c>
+      <c r="B580" s="2"/>
+      <c r="C580" s="17">
+        <v>44198</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E580" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G580" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A581" s="2">
+        <v>578</v>
+      </c>
+      <c r="B581" s="2"/>
+      <c r="C581" s="17">
+        <v>44198</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E581" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G581" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A582" s="2">
+        <v>579</v>
+      </c>
+      <c r="B582" s="2"/>
+      <c r="C582" s="17">
+        <v>44198</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E582" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F582" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G582" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A583" s="2">
+        <v>580</v>
+      </c>
+      <c r="B583" s="2"/>
+      <c r="C583" s="17">
+        <v>44199</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E583" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G583" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A584" s="2">
+        <v>581</v>
+      </c>
+      <c r="B584" s="2"/>
+      <c r="C584" s="17">
+        <v>44199</v>
+      </c>
+      <c r="D584" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E584" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F584" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="G584" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A585" s="2">
+        <v>582</v>
+      </c>
+      <c r="B585" s="2"/>
+      <c r="C585" s="17">
+        <v>44199</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E585" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G585" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A586" s="2">
+        <v>583</v>
+      </c>
+      <c r="B586" s="2"/>
+      <c r="C586" s="17">
+        <v>44199</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E586" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G586" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A587" s="2">
+        <v>584</v>
+      </c>
+      <c r="B587" s="2"/>
+      <c r="C587" s="17">
+        <v>44199</v>
+      </c>
+      <c r="D587" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E587" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G587" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A588" s="2">
+        <v>585</v>
+      </c>
+      <c r="B588" s="2"/>
+      <c r="C588" s="17">
+        <v>44199</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G588" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A589" s="2">
+        <v>586</v>
+      </c>
+      <c r="B589" s="2"/>
+      <c r="C589" s="17">
+        <v>44199</v>
+      </c>
+      <c r="D589" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E589" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G589" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A590" s="2">
+        <v>587</v>
+      </c>
+      <c r="B590" s="2"/>
+      <c r="C590" s="17">
+        <v>44200</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E590" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G590" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A591" s="2">
+        <v>588</v>
+      </c>
+      <c r="B591" s="2"/>
+      <c r="C591" s="17">
+        <v>44200</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E591" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G591" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A592" s="2">
+        <v>589</v>
+      </c>
+      <c r="B592" s="2"/>
+      <c r="C592" s="17">
+        <v>44200</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E592" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A593" s="2">
+        <v>590</v>
+      </c>
+      <c r="B593" s="2"/>
+      <c r="C593" s="17">
+        <v>44200</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G593" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A594" s="2">
+        <v>591</v>
+      </c>
+      <c r="B594" s="2"/>
+      <c r="C594" s="17">
+        <v>44200</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G594" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A595" s="2">
+        <v>592</v>
+      </c>
+      <c r="B595" s="2"/>
+      <c r="C595" s="17">
+        <v>44200</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A596" s="2">
+        <v>593</v>
+      </c>
+      <c r="B596" s="2"/>
+      <c r="C596" s="17">
+        <v>44200</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G596" s="3"/>
+    </row>
+    <row r="597" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A597" s="2">
+        <v>594</v>
+      </c>
+      <c r="B597" s="2"/>
+      <c r="C597" s="17">
+        <v>44200</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A598" s="2">
+        <v>595</v>
+      </c>
+      <c r="B598" s="2"/>
+      <c r="C598" s="17">
+        <v>44200</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A599" s="2">
+        <v>596</v>
+      </c>
+      <c r="B599" s="2"/>
+      <c r="C599" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A600" s="2">
+        <v>597</v>
+      </c>
+      <c r="B600" s="2"/>
+      <c r="C600" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E600" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A601" s="2">
+        <v>598</v>
+      </c>
+      <c r="B601" s="2"/>
+      <c r="C601" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E601" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A602" s="2">
+        <v>599</v>
+      </c>
+      <c r="B602" s="2"/>
+      <c r="C602" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E602" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A603" s="2">
+        <v>600</v>
+      </c>
+      <c r="B603" s="2"/>
+      <c r="C603" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E603" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A604" s="2">
+        <v>601</v>
+      </c>
+      <c r="B604" s="2"/>
+      <c r="C604" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A605" s="2">
+        <v>602</v>
+      </c>
+      <c r="B605" s="2"/>
+      <c r="C605" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E605" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G605" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A606" s="2">
+        <v>603</v>
+      </c>
+      <c r="B606" s="2"/>
+      <c r="C606" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E606" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A607" s="2">
+        <v>604</v>
+      </c>
+      <c r="B607" s="2"/>
+      <c r="C607" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E607" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G607" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A608" s="2">
+        <v>605</v>
+      </c>
+      <c r="B608" s="2"/>
+      <c r="C608" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E608" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G608" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A609" s="2">
+        <v>606</v>
+      </c>
+      <c r="B609" s="2"/>
+      <c r="C609" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E609" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A610" s="2">
+        <v>607</v>
+      </c>
+      <c r="B610" s="2"/>
+      <c r="C610" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E610" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A611" s="2">
+        <v>608</v>
+      </c>
+      <c r="B611" s="2"/>
+      <c r="C611" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E611" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A612" s="2">
+        <v>609</v>
+      </c>
+      <c r="B612" s="2"/>
+      <c r="C612" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E612" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B553:G553"/>
+    <mergeCell ref="B571:G571"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B409:G409"/>
     <mergeCell ref="B410:G410"/>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$612</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$644</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="162913" calcOnSave="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="370">
   <si>
     <t>年代</t>
   </si>
@@ -2363,6 +2363,27 @@
   </si>
   <si>
     <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長野県</t>
+    <rPh sb="0" eb="3">
+      <t>ナガノケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="5">
+      <t>イリョウジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
@@ -2866,10 +2887,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H612"/>
+  <dimension ref="A1:H644"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A604" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H612" sqref="H612"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A633" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H644" sqref="H644"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -15706,6 +15727,676 @@
       </c>
       <c r="G612" s="3" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A613" s="2">
+        <v>610</v>
+      </c>
+      <c r="B613" s="2"/>
+      <c r="C613" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E613" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F613" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A614" s="2">
+        <v>611</v>
+      </c>
+      <c r="B614" s="2"/>
+      <c r="C614" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E614" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A615" s="2">
+        <v>612</v>
+      </c>
+      <c r="B615" s="2"/>
+      <c r="C615" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E615" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F615" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A616" s="2">
+        <v>613</v>
+      </c>
+      <c r="B616" s="2"/>
+      <c r="C616" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E616" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A617" s="2">
+        <v>614</v>
+      </c>
+      <c r="B617" s="2"/>
+      <c r="C617" s="17">
+        <v>44201</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E617" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F617" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G617" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A618" s="2">
+        <v>615</v>
+      </c>
+      <c r="B618" s="2"/>
+      <c r="C618" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A619" s="2">
+        <v>616</v>
+      </c>
+      <c r="B619" s="2"/>
+      <c r="C619" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E619" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F619" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A620" s="2">
+        <v>617</v>
+      </c>
+      <c r="B620" s="2"/>
+      <c r="C620" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E620" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G620" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A621" s="2">
+        <v>618</v>
+      </c>
+      <c r="B621" s="2"/>
+      <c r="C621" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E621" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A622" s="2">
+        <v>619</v>
+      </c>
+      <c r="B622" s="2"/>
+      <c r="C622" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D622" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E622" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F622" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G622" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A623" s="2">
+        <v>620</v>
+      </c>
+      <c r="B623" s="2"/>
+      <c r="C623" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D623" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E623" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F623" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G623" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A624" s="2">
+        <v>621</v>
+      </c>
+      <c r="B624" s="2"/>
+      <c r="C624" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D624" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E624" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F624" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G624" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A625" s="2">
+        <v>622</v>
+      </c>
+      <c r="B625" s="2"/>
+      <c r="C625" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D625" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E625" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F625" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G625" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A626" s="2">
+        <v>623</v>
+      </c>
+      <c r="B626" s="2"/>
+      <c r="C626" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D626" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E626" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F626" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G626" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A627" s="2">
+        <v>624</v>
+      </c>
+      <c r="B627" s="2"/>
+      <c r="C627" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D627" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E627" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F627" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G627" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A628" s="2">
+        <v>625</v>
+      </c>
+      <c r="B628" s="2"/>
+      <c r="C628" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D628" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E628" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F628" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G628" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A629" s="2">
+        <v>626</v>
+      </c>
+      <c r="B629" s="2"/>
+      <c r="C629" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D629" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E629" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F629" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G629" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A630" s="2">
+        <v>627</v>
+      </c>
+      <c r="B630" s="2"/>
+      <c r="C630" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E630" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F630" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G630" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A631" s="2">
+        <v>628</v>
+      </c>
+      <c r="B631" s="2"/>
+      <c r="C631" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E631" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F631" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G631" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A632" s="2">
+        <v>629</v>
+      </c>
+      <c r="B632" s="2"/>
+      <c r="C632" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D632" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E632" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F632" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G632" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A633" s="2">
+        <v>630</v>
+      </c>
+      <c r="B633" s="2"/>
+      <c r="C633" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D633" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E633" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F633" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A634" s="2">
+        <v>631</v>
+      </c>
+      <c r="B634" s="2"/>
+      <c r="C634" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D634" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E634" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F634" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G634" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A635" s="2">
+        <v>632</v>
+      </c>
+      <c r="B635" s="2"/>
+      <c r="C635" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D635" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E635" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F635" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G635" s="3"/>
+    </row>
+    <row r="636" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A636" s="2">
+        <v>633</v>
+      </c>
+      <c r="B636" s="2"/>
+      <c r="C636" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D636" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E636" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F636" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A637" s="2">
+        <v>634</v>
+      </c>
+      <c r="B637" s="2"/>
+      <c r="C637" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D637" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E637" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F637" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A638" s="2">
+        <v>635</v>
+      </c>
+      <c r="B638" s="2"/>
+      <c r="C638" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E638" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A639" s="2">
+        <v>636</v>
+      </c>
+      <c r="B639" s="2"/>
+      <c r="C639" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D639" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E639" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F639" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A640" s="2">
+        <v>637</v>
+      </c>
+      <c r="B640" s="2"/>
+      <c r="C640" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D640" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E640" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F640" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A641" s="2">
+        <v>638</v>
+      </c>
+      <c r="B641" s="2"/>
+      <c r="C641" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D641" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E641" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A642" s="2">
+        <v>639</v>
+      </c>
+      <c r="B642" s="2"/>
+      <c r="C642" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D642" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E642" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A643" s="2">
+        <v>640</v>
+      </c>
+      <c r="B643" s="2"/>
+      <c r="C643" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D643" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E643" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A644" s="2">
+        <v>641</v>
+      </c>
+      <c r="B644" s="2"/>
+      <c r="C644" s="17">
+        <v>44202</v>
+      </c>
+      <c r="D644" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E644" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F644" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$644</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$665</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="380">
   <si>
     <t>年代</t>
   </si>
@@ -2386,6 +2386,85 @@
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川県</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代未満</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舟橋村</t>
+    <rPh sb="0" eb="2">
+      <t>フナハシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看護師</t>
+    <rPh sb="0" eb="3">
+      <t>カンゴシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設職員</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パート従業員</t>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2393,7 +2472,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -2522,7 +2601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2592,6 +2671,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2602,6 +2684,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2887,10 +2972,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H644"/>
+  <dimension ref="A1:H665"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A633" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H644" sqref="H644"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A653" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H667" sqref="H667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2903,15 +2988,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
@@ -11548,27 +11633,27 @@
       <c r="A409" s="2">
         <v>406</v>
       </c>
-      <c r="B409" s="23" t="s">
+      <c r="B409" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="C409" s="24"/>
-      <c r="D409" s="24"/>
-      <c r="E409" s="24"/>
-      <c r="F409" s="24"/>
-      <c r="G409" s="25"/>
+      <c r="C409" s="25"/>
+      <c r="D409" s="25"/>
+      <c r="E409" s="25"/>
+      <c r="F409" s="25"/>
+      <c r="G409" s="26"/>
     </row>
     <row r="410" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>407</v>
       </c>
-      <c r="B410" s="23" t="s">
+      <c r="B410" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="C410" s="24"/>
-      <c r="D410" s="24"/>
-      <c r="E410" s="24"/>
-      <c r="F410" s="24"/>
-      <c r="G410" s="25"/>
+      <c r="C410" s="25"/>
+      <c r="D410" s="25"/>
+      <c r="E410" s="25"/>
+      <c r="F410" s="25"/>
+      <c r="G410" s="26"/>
     </row>
     <row r="411" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
@@ -11929,14 +12014,14 @@
       <c r="A428" s="2">
         <v>425</v>
       </c>
-      <c r="B428" s="23" t="s">
+      <c r="B428" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="C428" s="24"/>
-      <c r="D428" s="24"/>
-      <c r="E428" s="24"/>
-      <c r="F428" s="24"/>
-      <c r="G428" s="25"/>
+      <c r="C428" s="25"/>
+      <c r="D428" s="25"/>
+      <c r="E428" s="25"/>
+      <c r="F428" s="25"/>
+      <c r="G428" s="26"/>
     </row>
     <row r="429" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
@@ -12820,14 +12905,14 @@
       <c r="A471" s="2">
         <v>468</v>
       </c>
-      <c r="B471" s="23" t="s">
+      <c r="B471" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="C471" s="24"/>
-      <c r="D471" s="24"/>
-      <c r="E471" s="24"/>
-      <c r="F471" s="24"/>
-      <c r="G471" s="25"/>
+      <c r="C471" s="25"/>
+      <c r="D471" s="25"/>
+      <c r="E471" s="25"/>
+      <c r="F471" s="25"/>
+      <c r="G471" s="26"/>
       <c r="H471" s="21"/>
     </row>
     <row r="472" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -14491,14 +14576,14 @@
       <c r="A553" s="2">
         <v>550</v>
       </c>
-      <c r="B553" s="23" t="s">
+      <c r="B553" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="C553" s="24"/>
-      <c r="D553" s="24"/>
-      <c r="E553" s="24"/>
-      <c r="F553" s="24"/>
-      <c r="G553" s="25"/>
+      <c r="C553" s="25"/>
+      <c r="D553" s="25"/>
+      <c r="E553" s="25"/>
+      <c r="F553" s="25"/>
+      <c r="G553" s="26"/>
     </row>
     <row r="554" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A554" s="2">
@@ -14861,14 +14946,14 @@
       <c r="A571" s="2">
         <v>568</v>
       </c>
-      <c r="B571" s="23" t="s">
+      <c r="B571" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="C571" s="24"/>
-      <c r="D571" s="24"/>
-      <c r="E571" s="24"/>
-      <c r="F571" s="24"/>
-      <c r="G571" s="25"/>
+      <c r="C571" s="25"/>
+      <c r="D571" s="25"/>
+      <c r="E571" s="25"/>
+      <c r="F571" s="25"/>
+      <c r="G571" s="26"/>
     </row>
     <row r="572" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A572" s="2">
@@ -16397,6 +16482,447 @@
       </c>
       <c r="G644" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A645" s="2">
+        <v>642</v>
+      </c>
+      <c r="B645" s="4"/>
+      <c r="C645" s="23">
+        <v>44202</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E645" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A646" s="2">
+        <v>643</v>
+      </c>
+      <c r="B646" s="4"/>
+      <c r="C646" s="23">
+        <v>44202</v>
+      </c>
+      <c r="D646" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E646" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F646" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G646" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A647" s="2">
+        <v>644</v>
+      </c>
+      <c r="B647" s="4"/>
+      <c r="C647" s="23">
+        <v>44202</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E647" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G647" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A648" s="2">
+        <v>645</v>
+      </c>
+      <c r="B648" s="4"/>
+      <c r="C648" s="23">
+        <v>44202</v>
+      </c>
+      <c r="D648" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E648" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G648" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A649" s="2">
+        <v>646</v>
+      </c>
+      <c r="B649" s="4"/>
+      <c r="C649" s="23">
+        <v>44202</v>
+      </c>
+      <c r="D649" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E649" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G649" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A650" s="2">
+        <v>647</v>
+      </c>
+      <c r="B650" s="4"/>
+      <c r="C650" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D650" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E650" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A651" s="2">
+        <v>648</v>
+      </c>
+      <c r="B651" s="4"/>
+      <c r="C651" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D651" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E651" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A652" s="2">
+        <v>649</v>
+      </c>
+      <c r="B652" s="4"/>
+      <c r="C652" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D652" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E652" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F652" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A653" s="2">
+        <v>650</v>
+      </c>
+      <c r="B653" s="4"/>
+      <c r="C653" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D653" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E653" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F653" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G653" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A654" s="2">
+        <v>651</v>
+      </c>
+      <c r="B654" s="4"/>
+      <c r="C654" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D654" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E654" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F654" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G654" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A655" s="2">
+        <v>652</v>
+      </c>
+      <c r="B655" s="4"/>
+      <c r="C655" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D655" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E655" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F655" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G655" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A656" s="2">
+        <v>653</v>
+      </c>
+      <c r="B656" s="4"/>
+      <c r="C656" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D656" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E656" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F656" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G656" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A657" s="2">
+        <v>654</v>
+      </c>
+      <c r="B657" s="4"/>
+      <c r="C657" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D657" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E657" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F657" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G657" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A658" s="2">
+        <v>655</v>
+      </c>
+      <c r="B658" s="4"/>
+      <c r="C658" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D658" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E658" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F658" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G658" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A659" s="2">
+        <v>656</v>
+      </c>
+      <c r="B659" s="4"/>
+      <c r="C659" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E659" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F659" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A660" s="2">
+        <v>657</v>
+      </c>
+      <c r="B660" s="4"/>
+      <c r="C660" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E660" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F660" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A661" s="2">
+        <v>658</v>
+      </c>
+      <c r="B661" s="4"/>
+      <c r="C661" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E661" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F661" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A662" s="2">
+        <v>659</v>
+      </c>
+      <c r="B662" s="4"/>
+      <c r="C662" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D662" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E662" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F662" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A663" s="2">
+        <v>660</v>
+      </c>
+      <c r="B663" s="4"/>
+      <c r="C663" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D663" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E663" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F663" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A664" s="2">
+        <v>661</v>
+      </c>
+      <c r="B664" s="4"/>
+      <c r="C664" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D664" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E664" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F664" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A665" s="2">
+        <v>662</v>
+      </c>
+      <c r="B665" s="4"/>
+      <c r="C665" s="28">
+        <v>44203</v>
+      </c>
+      <c r="D665" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E665" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F665" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/work/16_toyama2.xlsx
+++ b/work/16_toyama2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\新型コロナウィルス感染症対策本部\広報グループ\患者数等資料作成関係\HP公開用\"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">発生状況一覧!$F$1:$F$241</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$665</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">発生状況一覧!$A$1:$G$777</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">発生状況一覧!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="392">
   <si>
     <t>年代</t>
   </si>
@@ -2465,6 +2465,65 @@
     <t>パート従業員</t>
     <rPh sb="3" eb="6">
       <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砺波市</t>
+  </si>
+  <si>
+    <t>滑川市</t>
+  </si>
+  <si>
+    <t>立山町</t>
+  </si>
+  <si>
+    <t>70代</t>
+  </si>
+  <si>
+    <t>80代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福井県</t>
+    <rPh sb="0" eb="3">
+      <t>フクイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>教職員</t>
+    <rPh sb="0" eb="3">
+      <t>キョウショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本県</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2472,7 +2531,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -2674,6 +2733,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2684,9 +2746,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2972,10 +3031,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:H665"/>
+  <dimension ref="A1:H777"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A653" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H667" sqref="H667"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A763" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H777" sqref="H777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2988,15 +3047,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
@@ -11633,27 +11692,27 @@
       <c r="A409" s="2">
         <v>406</v>
       </c>
-      <c r="B409" s="24" t="s">
+      <c r="B409" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C409" s="25"/>
-      <c r="D409" s="25"/>
-      <c r="E409" s="25"/>
-      <c r="F409" s="25"/>
-      <c r="G409" s="26"/>
+      <c r="C409" s="26"/>
+      <c r="D409" s="26"/>
+      <c r="E409" s="26"/>
+      <c r="F409" s="26"/>
+      <c r="G409" s="27"/>
     </row>
     <row r="410" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <v>407</v>
       </c>
-      <c r="B410" s="24" t="s">
+      <c r="B410" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C410" s="25"/>
-      <c r="D410" s="25"/>
-      <c r="E410" s="25"/>
-      <c r="F410" s="25"/>
-      <c r="G410" s="26"/>
+      <c r="C410" s="26"/>
+      <c r="D410" s="26"/>
+      <c r="E410" s="26"/>
+      <c r="F410" s="26"/>
+      <c r="G410" s="27"/>
     </row>
     <row r="411" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
@@ -12014,14 +12073,14 @@
       <c r="A428" s="2">
         <v>425</v>
       </c>
-      <c r="B428" s="24" t="s">
+      <c r="B428" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C428" s="25"/>
-      <c r="D428" s="25"/>
-      <c r="E428" s="25"/>
-      <c r="F428" s="25"/>
-      <c r="G428" s="26"/>
+      <c r="C428" s="26"/>
+      <c r="D428" s="26"/>
+      <c r="E428" s="26"/>
+      <c r="F428" s="26"/>
+      <c r="G428" s="27"/>
     </row>
     <row r="429" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
@@ -12905,14 +12964,14 @@
       <c r="A471" s="2">
         <v>468</v>
       </c>
-      <c r="B471" s="24" t="s">
+      <c r="B471" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C471" s="25"/>
-      <c r="D471" s="25"/>
-      <c r="E471" s="25"/>
-      <c r="F471" s="25"/>
-      <c r="G471" s="26"/>
+      <c r="C471" s="26"/>
+      <c r="D471" s="26"/>
+      <c r="E471" s="26"/>
+      <c r="F471" s="26"/>
+      <c r="G471" s="27"/>
       <c r="H471" s="21"/>
     </row>
     <row r="472" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -14515,7 +14574,7 @@
       </c>
       <c r="B550" s="2"/>
       <c r="C550" s="17">
-        <v>44558</v>
+        <v>44193</v>
       </c>
       <c r="D550" s="2" t="s">
         <v>138</v>
@@ -14536,7 +14595,7 @@
       </c>
       <c r="B551" s="2"/>
       <c r="C551" s="17">
-        <v>44558</v>
+        <v>44193</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>140</v>
@@ -14557,7 +14616,7 @@
       </c>
       <c r="B552" s="2"/>
       <c r="C552" s="17">
-        <v>44556</v>
+        <v>44191</v>
       </c>
       <c r="D552" s="2" t="s">
         <v>138</v>
@@ -14576,14 +14635,14 @@
       <c r="A553" s="2">
         <v>550</v>
       </c>
-      <c r="B553" s="24" t="s">
+      <c r="B553" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C553" s="25"/>
-      <c r="D553" s="25"/>
-      <c r="E553" s="25"/>
-      <c r="F553" s="25"/>
-      <c r="G553" s="26"/>
+      <c r="C553" s="26"/>
+      <c r="D553" s="26"/>
+      <c r="E553" s="26"/>
+      <c r="F553" s="26"/>
+      <c r="G553" s="27"/>
     </row>
     <row r="554" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A554" s="2">
@@ -14591,7 +14650,7 @@
       </c>
       <c r="B554" s="2"/>
       <c r="C554" s="17">
-        <v>44558</v>
+        <v>44193</v>
       </c>
       <c r="D554" s="2" t="s">
         <v>142</v>
@@ -14612,7 +14671,7 @@
       </c>
       <c r="B555" s="2"/>
       <c r="C555" s="17">
-        <v>44558</v>
+        <v>44193</v>
       </c>
       <c r="D555" s="2" t="s">
         <v>340</v>
@@ -14633,7 +14692,7 @@
       </c>
       <c r="B556" s="2"/>
       <c r="C556" s="17">
-        <v>44559</v>
+        <v>44194</v>
       </c>
       <c r="D556" s="2" t="s">
         <v>345</v>
@@ -14654,7 +14713,7 @@
       </c>
       <c r="B557" s="2"/>
       <c r="C557" s="17">
-        <v>44559</v>
+        <v>44194</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>346</v>
@@ -14675,7 +14734,7 @@
       </c>
       <c r="B558" s="2"/>
       <c r="C558" s="17">
-        <v>44559</v>
+        <v>44194</v>
       </c>
       <c r="D558" s="2" t="s">
         <v>346</v>
@@ -14696,7 +14755,7 @@
       </c>
       <c r="B559" s="2"/>
       <c r="C559" s="17">
-        <v>44560</v>
+        <v>44195</v>
       </c>
       <c r="D559" s="2" t="s">
         <v>350</v>
@@ -14717,7 +14776,7 @@
       </c>
       <c r="B560" s="2"/>
       <c r="C560" s="17">
-        <v>44560</v>
+        <v>44195</v>
       </c>
       <c r="D560" s="2" t="s">
         <v>350</v>
@@ -14738,7 +14797,7 @@
       </c>
       <c r="B561" s="2"/>
       <c r="C561" s="17">
-        <v>44560</v>
+        <v>44195</v>
       </c>
       <c r="D561" s="2" t="s">
         <v>340</v>
@@ -14759,7 +14818,7 @@
       </c>
       <c r="B562" s="2"/>
       <c r="C562" s="17">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="D562" s="2" t="s">
         <v>352</v>
@@ -14780,7 +14839,7 @@
       </c>
       <c r="B563" s="2"/>
       <c r="C563" s="17">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="D563" s="2" t="s">
         <v>345</v>
@@ -14801,7 +14860,7 @@
       </c>
       <c r="B564" s="2"/>
       <c r="C564" s="17">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="D564" s="2" t="s">
         <v>340</v>
@@ -14822,7 +14881,7 @@
       </c>
       <c r="B565" s="2"/>
       <c r="C565" s="17">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="D565" s="2" t="s">
         <v>142</v>
@@ -14843,7 +14902,7 @@
       </c>
       <c r="B566" s="2"/>
       <c r="C566" s="17">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="D566" s="2" t="s">
         <v>346</v>
@@ -14864,7 +14923,7 @@
       </c>
       <c r="B567" s="2"/>
       <c r="C567" s="17">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="D567" s="2" t="s">
         <v>350</v>
@@ -14885,7 +14944,7 @@
       </c>
       <c r="B568" s="2"/>
       <c r="C568" s="17">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="D568" s="2" t="s">
         <v>357</v>
@@ -14906,7 +14965,7 @@
       </c>
       <c r="B569" s="2"/>
       <c r="C569" s="17">
-        <v>44561</v>
+        <v>44196</v>
       </c>
       <c r="D569" s="2" t="s">
         <v>352</v>
@@ -14946,14 +15005,14 @@
       <c r="A571" s="2">
         <v>568</v>
       </c>
-      <c r="B571" s="24" t="s">
+      <c r="B571" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C571" s="25"/>
-      <c r="D571" s="25"/>
-      <c r="E571" s="25"/>
-      <c r="F571" s="25"/>
-      <c r="G571" s="26"/>
+      <c r="C571" s="26"/>
+      <c r="D571" s="26"/>
+      <c r="E571" s="26"/>
+      <c r="F571" s="26"/>
+      <c r="G571" s="27"/>
     </row>
     <row r="572" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A572" s="2">
@@ -14961,7 +15020,7 @@
       </c>
       <c r="B572" s="2"/>
       <c r="C572" s="17">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="D572" s="2" t="s">
         <v>345</v>
@@ -14981,7 +15040,7 @@
         <v>570</v>
       </c>
       <c r="B573" s="2"/>
-      <c r="C573" s="17">
+      <c r="C573" s="19">
         <v>44197</v>
       </c>
       <c r="D573" s="2" t="s">
@@ -15001,8 +15060,8 @@
       <c r="A574" s="2">
         <v>571</v>
       </c>
-      <c r="B574" s="2"/>
-      <c r="C574" s="17">
+      <c r="B574" s="4"/>
+      <c r="C574" s="19">
         <v>44197</v>
       </c>
       <c r="D574" s="2" t="s">
@@ -15022,8 +15081,8 @@
       <c r="A575" s="2">
         <v>572</v>
       </c>
-      <c r="B575" s="2"/>
-      <c r="C575" s="17">
+      <c r="B575" s="4"/>
+      <c r="C575" s="19">
         <v>44197</v>
       </c>
       <c r="D575" s="2" t="s">
@@ -15043,8 +15102,8 @@
       <c r="A576" s="2">
         <v>573</v>
       </c>
-      <c r="B576" s="2"/>
-      <c r="C576" s="17">
+      <c r="B576" s="4"/>
+      <c r="C576" s="19">
         <v>44197</v>
       </c>
       <c r="D576" s="2" t="s">
@@ -15064,8 +15123,8 @@
       <c r="A577" s="2">
         <v>574</v>
       </c>
-      <c r="B577" s="2"/>
-      <c r="C577" s="17">
+      <c r="B577" s="4"/>
+      <c r="C577" s="19">
         <v>44198</v>
       </c>
       <c r="D577" s="2" t="s">
@@ -15085,8 +15144,8 @@
       <c r="A578" s="2">
         <v>575</v>
       </c>
-      <c r="B578" s="2"/>
-      <c r="C578" s="17">
+      <c r="B578" s="4"/>
+      <c r="C578" s="19">
         <v>44198</v>
       </c>
       <c r="D578" s="2" t="s">
@@ -15106,8 +15165,8 @@
       <c r="A579" s="2">
         <v>576</v>
       </c>
-      <c r="B579" s="2"/>
-      <c r="C579" s="17">
+      <c r="B579" s="4"/>
+      <c r="C579" s="19">
         <v>44198</v>
       </c>
       <c r="D579" s="2" t="s">
@@ -15127,8 +15186,8 @@
       <c r="A580" s="2">
         <v>577</v>
       </c>
-      <c r="B580" s="2"/>
-      <c r="C580" s="17">
+      <c r="B580" s="4"/>
+      <c r="C580" s="19">
         <v>44198</v>
       </c>
       <c r="D580" s="2" t="s">
@@ -15148,8 +15207,8 @@
       <c r="A581" s="2">
         <v>578</v>
       </c>
-      <c r="B581" s="2"/>
-      <c r="C581" s="17">
+      <c r="B581" s="4"/>
+      <c r="C581" s="19">
         <v>44198</v>
       </c>
       <c r="D581" s="2" t="s">
@@ -15169,9 +15228,9 @@
       <c r="A582" s="2">
         <v>579</v>
       </c>
-      <c r="B582" s="2"/>
-      <c r="C582" s="17">
-        <v>44198</v>
+      <c r="B582" s="4"/>
+      <c r="C582" s="23">
+        <v>44199</v>
       </c>
       <c r="D582" s="2" t="s">
         <v>346</v>
@@ -15190,8 +15249,8 @@
       <c r="A583" s="2">
         <v>580</v>
       </c>
-      <c r="B583" s="2"/>
-      <c r="C583" s="17">
+      <c r="B583" s="4"/>
+      <c r="C583" s="23">
         <v>44199</v>
       </c>
       <c r="D583" s="2" t="s">
@@ -15211,8 +15270,8 @@
       <c r="A584" s="2">
         <v>581</v>
       </c>
-      <c r="B584" s="2"/>
-      <c r="C584" s="17">
+      <c r="B584" s="4"/>
+      <c r="C584" s="23">
         <v>44199</v>
       </c>
       <c r="D584" s="2" t="s">
@@ -15232,8 +15291,8 @@
       <c r="A585" s="2">
         <v>582</v>
       </c>
-      <c r="B585" s="2"/>
-      <c r="C585" s="17">
+      <c r="B585" s="4"/>
+      <c r="C585" s="23">
         <v>44199</v>
       </c>
       <c r="D585" s="2" t="s">
@@ -15253,8 +15312,8 @@
       <c r="A586" s="2">
         <v>583</v>
       </c>
-      <c r="B586" s="2"/>
-      <c r="C586" s="17">
+      <c r="B586" s="4"/>
+      <c r="C586" s="23">
         <v>44199</v>
       </c>
       <c r="D586" s="2" t="s">
@@ -15274,8 +15333,8 @@
       <c r="A587" s="2">
         <v>584</v>
       </c>
-      <c r="B587" s="2"/>
-      <c r="C587" s="17">
+      <c r="B587" s="4"/>
+      <c r="C587" s="23">
         <v>44199</v>
       </c>
       <c r="D587" s="2" t="s">
@@ -15295,8 +15354,8 @@
       <c r="A588" s="2">
         <v>585</v>
       </c>
-      <c r="B588" s="2"/>
-      <c r="C588" s="17">
+      <c r="B588" s="4"/>
+      <c r="C588" s="23">
         <v>44199</v>
       </c>
       <c r="D588" s="2" t="s">
@@ -15316,8 +15375,8 @@
       <c r="A589" s="2">
         <v>586</v>
       </c>
-      <c r="B589" s="2"/>
-      <c r="C589" s="17">
+      <c r="B589" s="4"/>
+      <c r="C589" s="23">
         <v>44199</v>
       </c>
       <c r="D589" s="2" t="s">
@@ -15337,8 +15396,8 @@
       <c r="A590" s="2">
         <v>587</v>
       </c>
-      <c r="B590" s="2"/>
-      <c r="C590" s="17">
+      <c r="B590" s="4"/>
+      <c r="C590" s="23">
         <v>44200</v>
       </c>
       <c r="D590" s="2" t="s">
@@ -15358,8 +15417,8 @@
       <c r="A591" s="2">
         <v>588</v>
       </c>
-      <c r="B591" s="2"/>
-      <c r="C591" s="17">
+      <c r="B591" s="4"/>
+      <c r="C591" s="23">
         <v>44200</v>
       </c>
       <c r="D591" s="2" t="s">
@@ -15379,8 +15438,8 @@
       <c r="A592" s="2">
         <v>589</v>
       </c>
-      <c r="B592" s="2"/>
-      <c r="C592" s="17">
+      <c r="B592" s="4"/>
+      <c r="C592" s="23">
         <v>44200</v>
       </c>
       <c r="D592" s="2" t="s">
@@ -15400,8 +15459,8 @@
       <c r="A593" s="2">
         <v>590</v>
       </c>
-      <c r="B593" s="2"/>
-      <c r="C593" s="17">
+      <c r="B593" s="4"/>
+      <c r="C593" s="23">
         <v>44200</v>
       </c>
       <c r="D593" s="2" t="s">
@@ -15421,8 +15480,8 @@
       <c r="A594" s="2">
         <v>591</v>
       </c>
-      <c r="B594" s="2"/>
-      <c r="C594" s="17">
+      <c r="B594" s="4"/>
+      <c r="C594" s="23">
         <v>44200</v>
       </c>
       <c r="D594" s="2" t="s">
@@ -15442,8 +15501,8 @@
       <c r="A595" s="2">
         <v>592</v>
       </c>
-      <c r="B595" s="2"/>
-      <c r="C595" s="17">
+      <c r="B595" s="4"/>
+      <c r="C595" s="23">
         <v>44200</v>
       </c>
       <c r="D595" s="2" t="s">
@@ -15463,8 +15522,8 @@
       <c r="A596" s="2">
         <v>593</v>
       </c>
-      <c r="B596" s="2"/>
-      <c r="C596" s="17">
+      <c r="B596" s="4"/>
+      <c r="C596" s="23">
         <v>44200</v>
       </c>
       <c r="D596" s="2" t="s">
@@ -15482,8 +15541,8 @@
       <c r="A597" s="2">
         <v>594</v>
       </c>
-      <c r="B597" s="2"/>
-      <c r="C597" s="17">
+      <c r="B597" s="4"/>
+      <c r="C597" s="23">
         <v>44200</v>
       </c>
       <c r="D597" s="2" t="s">
@@ -15503,8 +15562,8 @@
       <c r="A598" s="2">
         <v>595</v>
       </c>
-      <c r="B598" s="2"/>
-      <c r="C598" s="17">
+      <c r="B598" s="4"/>
+      <c r="C598" s="23">
         <v>44200</v>
       </c>
       <c r="D598" s="2" t="s">
@@ -15524,8 +15583,8 @@
       <c r="A599" s="2">
         <v>596</v>
       </c>
-      <c r="B599" s="2"/>
-      <c r="C599" s="17">
+      <c r="B599" s="4"/>
+      <c r="C599" s="23">
         <v>44201</v>
       </c>
       <c r="D599" s="2" t="s">
@@ -15545,8 +15604,8 @@
       <c r="A600" s="2">
         <v>597</v>
       </c>
-      <c r="B600" s="2"/>
-      <c r="C600" s="17">
+      <c r="B600" s="4"/>
+      <c r="C600" s="23">
         <v>44201</v>
       </c>
       <c r="D600" s="2" t="s">
@@ -15566,8 +15625,8 @@
       <c r="A601" s="2">
         <v>598</v>
       </c>
-      <c r="B601" s="2"/>
-      <c r="C601" s="17">
+      <c r="B601" s="4"/>
+      <c r="C601" s="23">
         <v>44201</v>
       </c>
       <c r="D601" s="2" t="s">
@@ -15587,8 +15646,8 @@
       <c r="A602" s="2">
         <v>599</v>
       </c>
-      <c r="B602" s="2"/>
-      <c r="C602" s="17">
+      <c r="B602" s="4"/>
+      <c r="C602" s="23">
         <v>44201</v>
       </c>
       <c r="D602" s="2" t="s">
@@ -15608,8 +15667,8 @@
       <c r="A603" s="2">
         <v>600</v>
       </c>
-      <c r="B603" s="2"/>
-      <c r="C603" s="17">
+      <c r="B603" s="4"/>
+      <c r="C603" s="23">
         <v>44201</v>
       </c>
       <c r="D603" s="2" t="s">
@@ -15629,8 +15688,8 @@
       <c r="A604" s="2">
         <v>601</v>
       </c>
-      <c r="B604" s="2"/>
-      <c r="C604" s="17">
+      <c r="B604" s="4"/>
+      <c r="C604" s="23">
         <v>44201</v>
       </c>
       <c r="D604" s="2" t="s">
@@ -15650,8 +15709,8 @@
       <c r="A605" s="2">
         <v>602</v>
       </c>
-      <c r="B605" s="2"/>
-      <c r="C605" s="17">
+      <c r="B605" s="4"/>
+      <c r="C605" s="23">
         <v>44201</v>
       </c>
       <c r="D605" s="2" t="s">
@@ -15671,8 +15730,8 @@
       <c r="A606" s="2">
         <v>603</v>
       </c>
-      <c r="B606" s="2"/>
-      <c r="C606" s="17">
+      <c r="B606" s="4"/>
+      <c r="C606" s="23">
         <v>44201</v>
       </c>
       <c r="D606" s="2" t="s">
@@ -15692,8 +15751,8 @@
       <c r="A607" s="2">
         <v>604</v>
       </c>
-      <c r="B607" s="2"/>
-      <c r="C607" s="17">
+      <c r="B607" s="4"/>
+      <c r="C607" s="23">
         <v>44201</v>
       </c>
       <c r="D607" s="2" t="s">
@@ -15713,8 +15772,8 @@
       <c r="A608" s="2">
         <v>605</v>
       </c>
-      <c r="B608" s="2"/>
-      <c r="C608" s="17">
+      <c r="B608" s="4"/>
+      <c r="C608" s="23">
         <v>44201</v>
       </c>
       <c r="D608" s="2" t="s">
@@ -15734,8 +15793,8 @@
       <c r="A609" s="2">
         <v>606</v>
       </c>
-      <c r="B609" s="2"/>
-      <c r="C609" s="17">
+      <c r="B609" s="4"/>
+      <c r="C609" s="23">
         <v>44201</v>
       </c>
       <c r="D609" s="2" t="s">
@@ -15755,8 +15814,8 @@
       <c r="A610" s="2">
         <v>607</v>
       </c>
-      <c r="B610" s="2"/>
-      <c r="C610" s="17">
+      <c r="B610" s="4"/>
+      <c r="C610" s="23">
         <v>44201</v>
       </c>
       <c r="D610" s="2" t="s">
@@ -15776,8 +15835,8 @@
       <c r="A611" s="2">
         <v>608</v>
       </c>
-      <c r="B611" s="2"/>
-      <c r="C611" s="17">
+      <c r="B611" s="4"/>
+      <c r="C611" s="23">
         <v>44201</v>
       </c>
       <c r="D611" s="2" t="s">
@@ -15797,8 +15856,8 @@
       <c r="A612" s="2">
         <v>609</v>
       </c>
-      <c r="B612" s="2"/>
-      <c r="C612" s="17">
+      <c r="B612" s="4"/>
+      <c r="C612" s="23">
         <v>44201</v>
       </c>
       <c r="D612" s="2" t="s">
@@ -15818,8 +15877,8 @@
       <c r="A613" s="2">
         <v>610</v>
       </c>
-      <c r="B613" s="2"/>
-      <c r="C613" s="17">
+      <c r="B613" s="4"/>
+      <c r="C613" s="23">
         <v>44201</v>
       </c>
       <c r="D613" s="2" t="s">
@@ -15839,8 +15898,8 @@
       <c r="A614" s="2">
         <v>611</v>
       </c>
-      <c r="B614" s="2"/>
-      <c r="C614" s="17">
+      <c r="B614" s="4"/>
+      <c r="C614" s="23">
         <v>44201</v>
       </c>
       <c r="D614" s="2" t="s">
@@ -15860,8 +15919,8 @@
       <c r="A615" s="2">
         <v>612</v>
       </c>
-      <c r="B615" s="2"/>
-      <c r="C615" s="17">
+      <c r="B615" s="4"/>
+      <c r="C615" s="23">
         <v>44201</v>
       </c>
       <c r="D615" s="2" t="s">
@@ -15881,8 +15940,8 @@
       <c r="A616" s="2">
         <v>613</v>
       </c>
-      <c r="B616" s="2"/>
-      <c r="C616" s="17">
+      <c r="B616" s="4"/>
+      <c r="C616" s="23">
         <v>44201</v>
       </c>
       <c r="D616" s="2" t="s">
@@ -15902,8 +15961,8 @@
       <c r="A617" s="2">
         <v>614</v>
       </c>
-      <c r="B617" s="2"/>
-      <c r="C617" s="17">
+      <c r="B617" s="4"/>
+      <c r="C617" s="23">
         <v>44201</v>
       </c>
       <c r="D617" s="2" t="s">
@@ -15923,8 +15982,8 @@
       <c r="A618" s="2">
         <v>615</v>
       </c>
-      <c r="B618" s="2"/>
-      <c r="C618" s="17">
+      <c r="B618" s="4"/>
+      <c r="C618" s="23">
         <v>44202</v>
       </c>
       <c r="D618" s="2" t="s">
@@ -15944,8 +16003,8 @@
       <c r="A619" s="2">
         <v>616</v>
       </c>
-      <c r="B619" s="2"/>
-      <c r="C619" s="17">
+      <c r="B619" s="4"/>
+      <c r="C619" s="23">
         <v>44202</v>
       </c>
       <c r="D619" s="2" t="s">
@@ -15965,8 +16024,8 @@
       <c r="A620" s="2">
         <v>617</v>
       </c>
-      <c r="B620" s="2"/>
-      <c r="C620" s="17">
+      <c r="B620" s="4"/>
+      <c r="C620" s="23">
         <v>44202</v>
       </c>
       <c r="D620" s="2" t="s">
@@ -15986,8 +16045,8 @@
       <c r="A621" s="2">
         <v>618</v>
       </c>
-      <c r="B621" s="2"/>
-      <c r="C621" s="17">
+      <c r="B621" s="4"/>
+      <c r="C621" s="23">
         <v>44202</v>
       </c>
       <c r="D621" s="2" t="s">
@@ -16007,8 +16066,8 @@
       <c r="A622" s="2">
         <v>619</v>
       </c>
-      <c r="B622" s="2"/>
-      <c r="C622" s="17">
+      <c r="B622" s="4"/>
+      <c r="C622" s="23">
         <v>44202</v>
       </c>
       <c r="D622" s="2" t="s">
@@ -16028,8 +16087,8 @@
       <c r="A623" s="2">
         <v>620</v>
       </c>
-      <c r="B623" s="2"/>
-      <c r="C623" s="17">
+      <c r="B623" s="4"/>
+      <c r="C623" s="23">
         <v>44202</v>
       </c>
       <c r="D623" s="2" t="s">
@@ -16049,8 +16108,8 @@
       <c r="A624" s="2">
         <v>621</v>
       </c>
-      <c r="B624" s="2"/>
-      <c r="C624" s="17">
+      <c r="B624" s="4"/>
+      <c r="C624" s="23">
         <v>44202</v>
       </c>
       <c r="D624" s="2" t="s">
@@ -16070,8 +16129,8 @@
       <c r="A625" s="2">
         <v>622</v>
       </c>
-      <c r="B625" s="2"/>
-      <c r="C625" s="17">
+      <c r="B625" s="4"/>
+      <c r="C625" s="23">
         <v>44202</v>
       </c>
       <c r="D625" s="2" t="s">
@@ -16091,8 +16150,8 @@
       <c r="A626" s="2">
         <v>623</v>
       </c>
-      <c r="B626" s="2"/>
-      <c r="C626" s="17">
+      <c r="B626" s="4"/>
+      <c r="C626" s="23">
         <v>44202</v>
       </c>
       <c r="D626" s="2" t="s">
@@ -16112,8 +16171,8 @@
       <c r="A627" s="2">
         <v>624</v>
       </c>
-      <c r="B627" s="2"/>
-      <c r="C627" s="17">
+      <c r="B627" s="4"/>
+      <c r="C627" s="23">
         <v>44202</v>
       </c>
       <c r="D627" s="2" t="s">
@@ -16133,8 +16192,8 @@
       <c r="A628" s="2">
         <v>625</v>
       </c>
-      <c r="B628" s="2"/>
-      <c r="C628" s="17">
+      <c r="B628" s="4"/>
+      <c r="C628" s="23">
         <v>44202</v>
       </c>
       <c r="D628" s="2" t="s">
@@ -16154,8 +16213,8 @@
       <c r="A629" s="2">
         <v>626</v>
       </c>
-      <c r="B629" s="2"/>
-      <c r="C629" s="17">
+      <c r="B629" s="4"/>
+      <c r="C629" s="23">
         <v>44202</v>
       </c>
       <c r="D629" s="2" t="s">
@@ -16175,8 +16234,8 @@
       <c r="A630" s="2">
         <v>627</v>
       </c>
-      <c r="B630" s="2"/>
-      <c r="C630" s="17">
+      <c r="B630" s="4"/>
+      <c r="C630" s="23">
         <v>44202</v>
       </c>
       <c r="D630" s="2" t="s">
@@ -16196,8 +16255,8 @@
       <c r="A631" s="2">
         <v>628</v>
       </c>
-      <c r="B631" s="2"/>
-      <c r="C631" s="17">
+      <c r="B631" s="4"/>
+      <c r="C631" s="23">
         <v>44202</v>
       </c>
       <c r="D631" s="2" t="s">
@@ -16217,8 +16276,8 @@
       <c r="A632" s="2">
         <v>629</v>
       </c>
-      <c r="B632" s="2"/>
-      <c r="C632" s="17">
+      <c r="B632" s="4"/>
+      <c r="C632" s="23">
         <v>44202</v>
       </c>
       <c r="D632" s="2" t="s">
@@ -16238,8 +16297,8 @@
       <c r="A633" s="2">
         <v>630</v>
       </c>
-      <c r="B633" s="2"/>
-      <c r="C633" s="17">
+      <c r="B633" s="4"/>
+      <c r="C633" s="23">
         <v>44202</v>
       </c>
       <c r="D633" s="2" t="s">
@@ -16259,8 +16318,8 @@
       <c r="A634" s="2">
         <v>631</v>
       </c>
-      <c r="B634" s="2"/>
-      <c r="C634" s="17">
+      <c r="B634" s="4"/>
+      <c r="C634" s="23">
         <v>44202</v>
       </c>
       <c r="D634" s="2" t="s">
@@ -16280,8 +16339,8 @@
       <c r="A635" s="2">
         <v>632</v>
       </c>
-      <c r="B635" s="2"/>
-      <c r="C635" s="17">
+      <c r="B635" s="4"/>
+      <c r="C635" s="23">
         <v>44202</v>
       </c>
       <c r="D635" s="2" t="s">
@@ -16299,8 +16358,8 @@
       <c r="A636" s="2">
         <v>633</v>
       </c>
-      <c r="B636" s="2"/>
-      <c r="C636" s="17">
+      <c r="B636" s="4"/>
+      <c r="C636" s="23">
         <v>44202</v>
       </c>
       <c r="D636" s="2" t="s">
@@ -16320,8 +16379,8 @@
       <c r="A637" s="2">
         <v>634</v>
       </c>
-      <c r="B637" s="2"/>
-      <c r="C637" s="17">
+      <c r="B637" s="4"/>
+      <c r="C637" s="23">
         <v>44202</v>
       </c>
       <c r="D637" s="2" t="s">
@@ -16341,8 +16400,8 @@
       <c r="A638" s="2">
         <v>635</v>
       </c>
-      <c r="B638" s="2"/>
-      <c r="C638" s="17">
+      <c r="B638" s="4"/>
+      <c r="C638" s="23">
         <v>44202</v>
       </c>
       <c r="D638" s="2" t="s">
@@ -16362,8 +16421,8 @@
       <c r="A639" s="2">
         <v>636</v>
       </c>
-      <c r="B639" s="2"/>
-      <c r="C639" s="17">
+      <c r="B639" s="4"/>
+      <c r="C639" s="23">
         <v>44202</v>
       </c>
       <c r="D639" s="2" t="s">
@@ -16383,8 +16442,8 @@
       <c r="A640" s="2">
         <v>637</v>
       </c>
-      <c r="B640" s="2"/>
-      <c r="C640" s="17">
+      <c r="B640" s="4"/>
+      <c r="C640" s="23">
         <v>44202</v>
       </c>
       <c r="D640" s="2" t="s">
@@ -16404,8 +16463,8 @@
       <c r="A641" s="2">
         <v>638</v>
       </c>
-      <c r="B641" s="2"/>
-      <c r="C641" s="17">
+      <c r="B641" s="4"/>
+      <c r="C641" s="23">
         <v>44202</v>
       </c>
       <c r="D641" s="2" t="s">
@@ -16425,8 +16484,8 @@
       <c r="A642" s="2">
         <v>639</v>
       </c>
-      <c r="B642" s="2"/>
-      <c r="C642" s="17">
+      <c r="B642" s="4"/>
+      <c r="C642" s="23">
         <v>44202</v>
       </c>
       <c r="D642" s="2" t="s">
@@ -16446,8 +16505,8 @@
       <c r="A643" s="2">
         <v>640</v>
       </c>
-      <c r="B643" s="2"/>
-      <c r="C643" s="17">
+      <c r="B643" s="4"/>
+      <c r="C643" s="23">
         <v>44202</v>
       </c>
       <c r="D643" s="2" t="s">
@@ -16467,8 +16526,8 @@
       <c r="A644" s="2">
         <v>641</v>
       </c>
-      <c r="B644" s="2"/>
-      <c r="C644" s="17">
+      <c r="B644" s="4"/>
+      <c r="C644" s="23">
         <v>44202</v>
       </c>
       <c r="D644" s="2" t="s">
@@ -16616,7 +16675,7 @@
       </c>
       <c r="B651" s="4"/>
       <c r="C651" s="23">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="D651" s="2" t="s">
         <v>141</v>
@@ -16637,7 +16696,7 @@
       </c>
       <c r="B652" s="4"/>
       <c r="C652" s="23">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="D652" s="2" t="s">
         <v>144</v>
@@ -16679,7 +16738,7 @@
       </c>
       <c r="B654" s="4"/>
       <c r="C654" s="23">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="D654" s="2" t="s">
         <v>139</v>
@@ -16700,7 +16759,7 @@
       </c>
       <c r="B655" s="4"/>
       <c r="C655" s="23">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="D655" s="2" t="s">
         <v>371</v>
@@ -16721,7 +16780,7 @@
       </c>
       <c r="B656" s="4"/>
       <c r="C656" s="23">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="D656" s="2" t="s">
         <v>143</v>
@@ -16742,7 +16801,7 @@
       </c>
       <c r="B657" s="4"/>
       <c r="C657" s="23">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="D657" s="2" t="s">
         <v>140</v>
@@ -16909,7 +16968,7 @@
         <v>662</v>
       </c>
       <c r="B665" s="4"/>
-      <c r="C665" s="28">
+      <c r="C665" s="23">
         <v>44203</v>
       </c>
       <c r="D665" s="2" t="s">
@@ -16923,6 +16982,2352 @@
       </c>
       <c r="G665" s="3" t="s">
         <v>373</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A666" s="2">
+        <v>663</v>
+      </c>
+      <c r="B666" s="4"/>
+      <c r="C666" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D666" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E666" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F666" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A667" s="2">
+        <v>664</v>
+      </c>
+      <c r="B667" s="4"/>
+      <c r="C667" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D667" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E667" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F667" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G667" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A668" s="2">
+        <v>665</v>
+      </c>
+      <c r="B668" s="4"/>
+      <c r="C668" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D668" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E668" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F668" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G668" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A669" s="2">
+        <v>666</v>
+      </c>
+      <c r="B669" s="4"/>
+      <c r="C669" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D669" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E669" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F669" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A670" s="2">
+        <v>667</v>
+      </c>
+      <c r="B670" s="4"/>
+      <c r="C670" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D670" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E670" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F670" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A671" s="2">
+        <v>668</v>
+      </c>
+      <c r="B671" s="4"/>
+      <c r="C671" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D671" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E671" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F671" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A672" s="2">
+        <v>669</v>
+      </c>
+      <c r="B672" s="4"/>
+      <c r="C672" s="23">
+        <v>44203</v>
+      </c>
+      <c r="D672" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E672" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F672" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A673" s="2">
+        <v>670</v>
+      </c>
+      <c r="B673" s="4"/>
+      <c r="C673" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E673" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F673" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A674" s="2">
+        <v>671</v>
+      </c>
+      <c r="B674" s="4"/>
+      <c r="C674" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D674" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E674" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F674" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A675" s="2">
+        <v>672</v>
+      </c>
+      <c r="B675" s="4"/>
+      <c r="C675" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D675" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E675" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F675" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A676" s="2">
+        <v>673</v>
+      </c>
+      <c r="B676" s="4"/>
+      <c r="C676" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D676" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E676" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F676" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A677" s="2">
+        <v>674</v>
+      </c>
+      <c r="B677" s="4"/>
+      <c r="C677" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D677" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E677" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F677" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A678" s="2">
+        <v>675</v>
+      </c>
+      <c r="B678" s="4"/>
+      <c r="C678" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D678" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E678" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F678" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A679" s="2">
+        <v>676</v>
+      </c>
+      <c r="B679" s="4"/>
+      <c r="C679" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D679" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E679" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F679" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A680" s="2">
+        <v>677</v>
+      </c>
+      <c r="B680" s="4"/>
+      <c r="C680" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D680" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E680" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F680" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A681" s="2">
+        <v>678</v>
+      </c>
+      <c r="B681" s="4"/>
+      <c r="C681" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D681" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E681" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F681" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G681" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A682" s="2">
+        <v>679</v>
+      </c>
+      <c r="B682" s="4"/>
+      <c r="C682" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D682" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E682" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F682" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G682" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A683" s="2">
+        <v>680</v>
+      </c>
+      <c r="B683" s="4"/>
+      <c r="C683" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D683" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E683" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F683" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G683" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A684" s="2">
+        <v>681</v>
+      </c>
+      <c r="B684" s="4"/>
+      <c r="C684" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D684" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E684" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F684" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G684" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A685" s="2">
+        <v>682</v>
+      </c>
+      <c r="B685" s="4"/>
+      <c r="C685" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E685" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F685" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A686" s="2">
+        <v>683</v>
+      </c>
+      <c r="B686" s="4"/>
+      <c r="C686" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D686" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E686" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F686" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A687" s="2">
+        <v>684</v>
+      </c>
+      <c r="B687" s="4"/>
+      <c r="C687" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D687" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E687" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F687" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G687" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A688" s="2">
+        <v>685</v>
+      </c>
+      <c r="B688" s="4"/>
+      <c r="C688" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E688" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F688" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G688" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A689" s="2">
+        <v>686</v>
+      </c>
+      <c r="B689" s="4"/>
+      <c r="C689" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D689" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E689" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F689" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G689" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A690" s="2">
+        <v>687</v>
+      </c>
+      <c r="B690" s="4"/>
+      <c r="C690" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D690" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E690" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F690" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A691" s="2">
+        <v>688</v>
+      </c>
+      <c r="B691" s="4"/>
+      <c r="C691" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D691" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E691" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F691" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G691" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A692" s="2">
+        <v>689</v>
+      </c>
+      <c r="B692" s="4"/>
+      <c r="C692" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D692" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E692" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F692" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G692" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A693" s="2">
+        <v>690</v>
+      </c>
+      <c r="B693" s="4"/>
+      <c r="C693" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D693" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E693" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F693" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G693" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A694" s="2">
+        <v>691</v>
+      </c>
+      <c r="B694" s="4"/>
+      <c r="C694" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D694" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E694" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F694" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G694" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A695" s="2">
+        <v>692</v>
+      </c>
+      <c r="B695" s="4"/>
+      <c r="C695" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E695" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F695" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G695" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A696" s="2">
+        <v>693</v>
+      </c>
+      <c r="B696" s="4"/>
+      <c r="C696" s="23">
+        <v>44204</v>
+      </c>
+      <c r="D696" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E696" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F696" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G696" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A697" s="2">
+        <v>694</v>
+      </c>
+      <c r="B697" s="4"/>
+      <c r="C697" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D697" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E697" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F697" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G697" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A698" s="2">
+        <v>695</v>
+      </c>
+      <c r="B698" s="4"/>
+      <c r="C698" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D698" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E698" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F698" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G698" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A699" s="2">
+        <v>696</v>
+      </c>
+      <c r="B699" s="4"/>
+      <c r="C699" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D699" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E699" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F699" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G699" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A700" s="2">
+        <v>697</v>
+      </c>
+      <c r="B700" s="4"/>
+      <c r="C700" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D700" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E700" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F700" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G700" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A701" s="2">
+        <v>698</v>
+      </c>
+      <c r="B701" s="4"/>
+      <c r="C701" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D701" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E701" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F701" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G701" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A702" s="2">
+        <v>699</v>
+      </c>
+      <c r="B702" s="4"/>
+      <c r="C702" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D702" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E702" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F702" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G702" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A703" s="2">
+        <v>700</v>
+      </c>
+      <c r="B703" s="4"/>
+      <c r="C703" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D703" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E703" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F703" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G703" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A704" s="2">
+        <v>701</v>
+      </c>
+      <c r="B704" s="4"/>
+      <c r="C704" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D704" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E704" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F704" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G704" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A705" s="2">
+        <v>702</v>
+      </c>
+      <c r="B705" s="4"/>
+      <c r="C705" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D705" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E705" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F705" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G705" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A706" s="2">
+        <v>703</v>
+      </c>
+      <c r="B706" s="4"/>
+      <c r="C706" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D706" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E706" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F706" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G706" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A707" s="2">
+        <v>704</v>
+      </c>
+      <c r="B707" s="4"/>
+      <c r="C707" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D707" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E707" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F707" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G707" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A708" s="2">
+        <v>705</v>
+      </c>
+      <c r="B708" s="4"/>
+      <c r="C708" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D708" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E708" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F708" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G708" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A709" s="2">
+        <v>706</v>
+      </c>
+      <c r="B709" s="4"/>
+      <c r="C709" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D709" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E709" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F709" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G709" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A710" s="2">
+        <v>707</v>
+      </c>
+      <c r="B710" s="4"/>
+      <c r="C710" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D710" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E710" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F710" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G710" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A711" s="2">
+        <v>708</v>
+      </c>
+      <c r="B711" s="4"/>
+      <c r="C711" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D711" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E711" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F711" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G711" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A712" s="2">
+        <v>709</v>
+      </c>
+      <c r="B712" s="4"/>
+      <c r="C712" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D712" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E712" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F712" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G712" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A713" s="2">
+        <v>710</v>
+      </c>
+      <c r="B713" s="4"/>
+      <c r="C713" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D713" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E713" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F713" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G713" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A714" s="2">
+        <v>711</v>
+      </c>
+      <c r="B714" s="4"/>
+      <c r="C714" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D714" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E714" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F714" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G714" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A715" s="2">
+        <v>712</v>
+      </c>
+      <c r="B715" s="4"/>
+      <c r="C715" s="23">
+        <v>44205</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E715" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F715" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A716" s="2">
+        <v>713</v>
+      </c>
+      <c r="B716" s="4"/>
+      <c r="C716" s="23">
+        <v>44206</v>
+      </c>
+      <c r="D716" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E716" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F716" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A717" s="2">
+        <v>714</v>
+      </c>
+      <c r="B717" s="4"/>
+      <c r="C717" s="23">
+        <v>44206</v>
+      </c>
+      <c r="D717" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E717" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F717" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A718" s="2">
+        <v>715</v>
+      </c>
+      <c r="B718" s="4"/>
+      <c r="C718" s="23">
+        <v>44206</v>
+      </c>
+      <c r="D718" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E718" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F718" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G718" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A719" s="2">
+        <v>716</v>
+      </c>
+      <c r="B719" s="4"/>
+      <c r="C719" s="23">
+        <v>44206</v>
+      </c>
+      <c r="D719" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E719" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F719" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G719" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A720" s="2">
+        <v>717</v>
+      </c>
+      <c r="B720" s="4"/>
+      <c r="C720" s="23">
+        <v>44206</v>
+      </c>
+      <c r="D720" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E720" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F720" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G720" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A721" s="2">
+        <v>718</v>
+      </c>
+      <c r="B721" s="4"/>
+      <c r="C721" s="23">
+        <v>44206</v>
+      </c>
+      <c r="D721" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E721" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F721" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G721" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A722" s="2">
+        <v>719</v>
+      </c>
+      <c r="B722" s="4"/>
+      <c r="C722" s="23">
+        <v>44206</v>
+      </c>
+      <c r="D722" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E722" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F722" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G722" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A723" s="2">
+        <v>720</v>
+      </c>
+      <c r="B723" s="4"/>
+      <c r="C723" s="23">
+        <v>44206</v>
+      </c>
+      <c r="D723" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E723" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F723" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G723" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A724" s="2">
+        <v>721</v>
+      </c>
+      <c r="B724" s="4"/>
+      <c r="C724" s="23">
+        <v>44206</v>
+      </c>
+      <c r="D724" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E724" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F724" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G724" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A725" s="2">
+        <v>722</v>
+      </c>
+      <c r="B725" s="4"/>
+      <c r="C725" s="23">
+        <v>44206</v>
+      </c>
+      <c r="D725" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E725" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F725" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G725" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A726" s="2">
+        <v>723</v>
+      </c>
+      <c r="B726" s="4"/>
+      <c r="C726" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D726" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E726" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F726" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G726" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A727" s="2">
+        <v>724</v>
+      </c>
+      <c r="B727" s="4"/>
+      <c r="C727" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D727" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E727" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F727" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G727" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A728" s="2">
+        <v>725</v>
+      </c>
+      <c r="B728" s="4"/>
+      <c r="C728" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D728" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E728" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F728" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G728" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A729" s="2">
+        <v>726</v>
+      </c>
+      <c r="B729" s="4"/>
+      <c r="C729" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E729" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F729" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A730" s="2">
+        <v>727</v>
+      </c>
+      <c r="B730" s="4"/>
+      <c r="C730" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D730" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E730" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F730" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A731" s="2">
+        <v>728</v>
+      </c>
+      <c r="B731" s="4"/>
+      <c r="C731" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D731" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E731" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F731" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G731" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A732" s="2">
+        <v>729</v>
+      </c>
+      <c r="B732" s="4"/>
+      <c r="C732" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D732" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E732" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F732" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A733" s="2">
+        <v>730</v>
+      </c>
+      <c r="B733" s="4"/>
+      <c r="C733" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D733" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E733" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F733" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G733" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A734" s="2">
+        <v>731</v>
+      </c>
+      <c r="B734" s="4"/>
+      <c r="C734" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D734" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E734" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F734" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G734" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A735" s="2">
+        <v>732</v>
+      </c>
+      <c r="B735" s="4"/>
+      <c r="C735" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D735" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E735" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F735" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G735" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A736" s="2">
+        <v>733</v>
+      </c>
+      <c r="B736" s="4"/>
+      <c r="C736" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D736" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E736" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F736" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G736" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A737" s="2">
+        <v>734</v>
+      </c>
+      <c r="B737" s="4"/>
+      <c r="C737" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D737" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E737" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F737" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G737" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A738" s="2">
+        <v>735</v>
+      </c>
+      <c r="B738" s="4"/>
+      <c r="C738" s="23">
+        <v>44207</v>
+      </c>
+      <c r="D738" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E738" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F738" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G738" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A739" s="2">
+        <v>736</v>
+      </c>
+      <c r="B739" s="4"/>
+      <c r="C739" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D739" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E739" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F739" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G739" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A740" s="2">
+        <v>737</v>
+      </c>
+      <c r="B740" s="4"/>
+      <c r="C740" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D740" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E740" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F740" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G740" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A741" s="2">
+        <v>738</v>
+      </c>
+      <c r="B741" s="4"/>
+      <c r="C741" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D741" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E741" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F741" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G741" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A742" s="2">
+        <v>739</v>
+      </c>
+      <c r="B742" s="4"/>
+      <c r="C742" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D742" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E742" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F742" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G742" s="3"/>
+    </row>
+    <row r="743" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A743" s="2">
+        <v>740</v>
+      </c>
+      <c r="B743" s="4"/>
+      <c r="C743" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D743" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E743" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F743" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G743" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A744" s="2">
+        <v>741</v>
+      </c>
+      <c r="B744" s="4"/>
+      <c r="C744" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D744" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E744" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F744" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G744" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A745" s="2">
+        <v>742</v>
+      </c>
+      <c r="B745" s="4"/>
+      <c r="C745" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D745" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E745" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F745" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G745" s="3"/>
+    </row>
+    <row r="746" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A746" s="2">
+        <v>743</v>
+      </c>
+      <c r="B746" s="4"/>
+      <c r="C746" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D746" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E746" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F746" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G746" s="3"/>
+    </row>
+    <row r="747" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A747" s="2">
+        <v>744</v>
+      </c>
+      <c r="B747" s="4"/>
+      <c r="C747" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D747" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E747" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F747" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G747" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A748" s="2">
+        <v>745</v>
+      </c>
+      <c r="B748" s="4"/>
+      <c r="C748" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D748" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E748" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F748" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G748" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A749" s="2">
+        <v>746</v>
+      </c>
+      <c r="B749" s="4"/>
+      <c r="C749" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D749" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E749" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F749" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G749" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A750" s="2">
+        <v>747</v>
+      </c>
+      <c r="B750" s="4"/>
+      <c r="C750" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D750" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E750" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F750" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G750" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A751" s="2">
+        <v>748</v>
+      </c>
+      <c r="B751" s="4"/>
+      <c r="C751" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D751" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E751" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F751" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G751" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A752" s="2">
+        <v>749</v>
+      </c>
+      <c r="B752" s="4"/>
+      <c r="C752" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D752" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E752" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F752" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G752" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A753" s="2">
+        <v>750</v>
+      </c>
+      <c r="B753" s="4"/>
+      <c r="C753" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D753" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E753" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F753" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G753" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A754" s="2">
+        <v>751</v>
+      </c>
+      <c r="B754" s="4"/>
+      <c r="C754" s="23">
+        <v>44208</v>
+      </c>
+      <c r="D754" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E754" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F754" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G754" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A755" s="2">
+        <v>752</v>
+      </c>
+      <c r="B755" s="4"/>
+      <c r="C755" s="23">
+        <v>44209</v>
+      </c>
+      <c r="D755" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E755" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F755" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G755" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A756" s="2">
+        <v>753</v>
+      </c>
+      <c r="B756" s="4"/>
+      <c r="C756" s="23">
+        <v>44209</v>
+      </c>
+      <c r="D756" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E756" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F756" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G756" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A757" s="2">
+        <v>754</v>
+      </c>
+      <c r="B757" s="4"/>
+      <c r="C757" s="23">
+        <v>44209</v>
+      </c>
+      <c r="D757" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E757" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F757" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G757" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A758" s="2">
+        <v>755</v>
+      </c>
+      <c r="B758" s="4"/>
+      <c r="C758" s="23">
+        <v>44209</v>
+      </c>
+      <c r="D758" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E758" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F758" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G758" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A759" s="2">
+        <v>756</v>
+      </c>
+      <c r="B759" s="4"/>
+      <c r="C759" s="23">
+        <v>44209</v>
+      </c>
+      <c r="D759" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E759" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F759" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G759" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A760" s="2">
+        <v>757</v>
+      </c>
+      <c r="B760" s="4"/>
+      <c r="C760" s="23">
+        <v>44209</v>
+      </c>
+      <c r="D760" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E760" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F760" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G760" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A761" s="2">
+        <v>758</v>
+      </c>
+      <c r="B761" s="4"/>
+      <c r="C761" s="23">
+        <v>44209</v>
+      </c>
+      <c r="D761" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E761" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F761" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G761" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A762" s="2">
+        <v>759</v>
+      </c>
+      <c r="B762" s="4"/>
+      <c r="C762" s="23">
+        <v>44209</v>
+      </c>
+      <c r="D762" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E762" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F762" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G762" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A763" s="2">
+        <v>760</v>
+      </c>
+      <c r="B763" s="4"/>
+      <c r="C763" s="23">
+        <v>44209</v>
+      </c>
+      <c r="D763" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E763" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F763" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G763" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A764" s="2">
+        <v>761</v>
+      </c>
+      <c r="B764" s="4"/>
+      <c r="C764" s="23">
+        <v>44209</v>
+      </c>
+      <c r="D764" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E764" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F764" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G764" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A765" s="2">
+        <v>762</v>
+      </c>
+      <c r="B765" s="4"/>
+      <c r="C765" s="23">
+        <v>44209</v>
+      </c>
+      <c r="D765" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E765" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F765" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G765" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A766" s="2">
+        <v>763</v>
+      </c>
+      <c r="B766" s="4"/>
+      <c r="C766" s="23">
+        <v>44209</v>
+      </c>
+      <c r="D766" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E766" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F766" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G766" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A767" s="2">
+        <v>764</v>
+      </c>
+      <c r="B767" s="4"/>
+      <c r="C767" s="23">
+        <v>44210</v>
+      </c>
+      <c r="D767" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E767" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F767" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G767" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A768" s="2">
+        <v>765</v>
+      </c>
+      <c r="B768" s="4"/>
+      <c r="C768" s="23">
+        <v>44210</v>
+      </c>
+      <c r="D768" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E768" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F768" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G768" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A769" s="2">
+        <v>766</v>
+      </c>
+      <c r="B769" s="4"/>
+      <c r="C769" s="23">
+        <v>44210</v>
+      </c>
+      <c r="D769" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E769" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F769" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G769" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A770" s="2">
+        <v>767</v>
+      </c>
+      <c r="B770" s="4"/>
+      <c r="C770" s="23">
+        <v>44210</v>
+      </c>
+      <c r="D770" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E770" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F770" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G770" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A771" s="2">
+        <v>768</v>
+      </c>
+      <c r="B771" s="4"/>
+      <c r="C771" s="23">
+        <v>44210</v>
+      </c>
+      <c r="D771" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E771" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F771" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G771" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A772" s="2">
+        <v>769</v>
+      </c>
+      <c r="B772" s="4"/>
+      <c r="C772" s="23">
+        <v>44210</v>
+      </c>
+      <c r="D772" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E772" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F772" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G772" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A773" s="2">
+        <v>770</v>
+      </c>
+      <c r="B773" s="2"/>
+      <c r="C773" s="24">
+        <v>44210</v>
+      </c>
+      <c r="D773" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E773" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F773" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G773" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A774" s="2">
+        <v>771</v>
+      </c>
+      <c r="B774" s="2"/>
+      <c r="C774" s="24">
+        <v>44210</v>
+      </c>
+      <c r="D774" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E774" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F774" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G774" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A775" s="2">
+        <v>772</v>
+      </c>
+      <c r="B775" s="2"/>
+      <c r="C775" s="24">
+        <v>44210</v>
+      </c>
+      <c r="D775" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E775" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F775" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G775" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A776" s="2">
+        <v>773</v>
+      </c>
+      <c r="B776" s="2"/>
+      <c r="C776" s="24">
+        <v>44210</v>
+      </c>
+      <c r="D776" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E776" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F776" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G776" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A777" s="2">
+        <v>774</v>
+      </c>
+      <c r="B777" s="2"/>
+      <c r="C777" s="24">
+        <v>44210</v>
+      </c>
+      <c r="D777" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E777" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F777" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G777" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
